--- a/Equipe304.xlsx
+++ b/Equipe304.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{145DC396-CA8D-4BCB-8AA5-9EEE7BDB199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD14C53-ADED-4FA8-BE18-915A10F6ED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="203">
   <si>
     <t>Fonct.</t>
   </si>
@@ -108,6 +108,9 @@
 -0.5 ExchangeParams, CommandParams</t>
   </si>
   <si>
+    <t>-1 Server:SocketManagerService</t>
+  </si>
+  <si>
     <t>1.2 Nom</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
 Le format à utiliser est le PascalCase</t>
   </si>
   <si>
+    <t>-0 Client:FormComponent - trouver un nom plus représentatif</t>
+  </si>
+  <si>
     <t>1.3 Attributs</t>
   </si>
   <si>
@@ -126,6 +132,11 @@
   <si>
     <t>-0.5 RackService:squareHeight
 -0.5 ValidationService:updatePlayerScore</t>
+  </si>
+  <si>
+    <t>-0.25 Client:ChatDisplayService:sendSystemMessageToServer
+-0.25 Server:GameListService:getList
+-0.25 Client:ManipulationRackService:letterSelectedPostion, firstOccurencePosition</t>
   </si>
   <si>
     <t>1.4 Accessibilité</t>
@@ -144,6 +155,16 @@
 -0.25 WordBuilder.Service.completeWordInADirection</t>
   </si>
   <si>
+    <t>Client:BonusService:useVerticalWordBonus
+Client:ChatDisplayService: socketOnConnect
+Client:CommandInvokerService:displayExecutionResultMessages
+Client:GridService:drawSinglequareColor
+Client:LetterStockService:addLettersToStock
+Client:MouseWordPlacerService:findPlaceForLetter
+Client:MultiPlayerGameService:updateBoard
+Client:PlaceService:placeLetter</t>
+  </si>
+  <si>
     <t>1.5 Valeur par défaut</t>
   </si>
   <si>
@@ -159,6 +180,10 @@
 -0.5 RackService</t>
   </si>
   <si>
+    <t>Client:ScrabbleBoard
+Server:ScrabbleBoard</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -175,10 +200,16 @@
 Le format à utiliser doit être uniforme dans tous les fichiers (camelCase, PascalCase, ...)</t>
   </si>
   <si>
+    <t>-1 de nombreux typo dans le code</t>
+  </si>
+  <si>
     <t>2.2 Utilité</t>
   </si>
   <si>
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
+  </si>
+  <si>
+    <t>-0.5 virtual-player.service.ts:160</t>
   </si>
   <si>
     <t>2.3 Nombre de paramètres</t>
@@ -200,6 +231,9 @@
     <t>Tous les paramètres de fonction sont utilisés</t>
   </si>
   <si>
+    <t>-0.5 word-builder-service.ts: 19</t>
+  </si>
+  <si>
     <t>3. Exceptions</t>
   </si>
   <si>
@@ -228,6 +262,12 @@
     <t>Tout code asynchrone (Promise, Observable ou Event) doit être géré adéquatement.</t>
   </si>
   <si>
+    <t>Il faut unsubscribe lorsqu'un component est détruit. Voici un exemple pour Client:PlayAreaComponent:
+playerSub = this.gameService.currentGameService...subscribe(...)
+ngOnDestroy() { this.playerSub.unsubscribe() }
+-0.25 PlayAreaComponent</t>
+  </si>
+  <si>
     <t>4. Variables</t>
   </si>
   <si>
@@ -271,6 +311,10 @@
 -0.25 ValidationService</t>
   </si>
   <si>
+    <t>-0.75 Client:FormComponent
+-0.25 Client:ActivateGuardService</t>
+  </si>
+  <si>
     <t>5.2 Logique booléenne négative</t>
   </si>
   <si>
@@ -279,6 +323,9 @@
   <si>
     <t>-0.25 RackService:43
 -0.25 ValidationService</t>
+  </si>
+  <si>
+    <t>Attention à "(!A &amp;&amp; !B)"</t>
   </si>
   <si>
     <t>5.3 Opérateurs ternaires</t>
@@ -292,6 +339,15 @@
 -0.5 SidebarComponent:61</t>
   </si>
   <si>
+    <t>-0.25 Client:ActivateGuardService:17
+-0.25 Client:SidebarComponent:83
+-0.25 Client:ChatDisplayComponent:32
+-0.25 Client:FormComponent:43
+-0 Server:PlayerManagerService:18
+-0.25 Client:ScrabbleBoard:isWordPassingInCenter
+-0.25 Client:PlaceService:canPlaceWord</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -303,6 +359,12 @@
 -0.25 SoloGameService:308</t>
   </si>
   <si>
+    <t>-0.25 Client:MouseWordPlacerService:44, 130
+-0.25 Client:PlaceService:94
+-0 Client:VirtualPlayerService:210
+-0.25 Client:VirtualPlayerService:280</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -328,6 +390,14 @@
 -0.5 virtual-player.service.ts</t>
   </si>
   <si>
+    <t>-0.5 game-list.service.ts: espacement
+-0.5 mouse-word-placer-compagnion.ts: espacement
+-0.5 mouse-word-placer.ts: espacement
+-0.5 place-service.ts: espacement
+-0.5 solo-game-service.ts: espacement
+-0.5 game-list-manager-service.ts: espacement</t>
+  </si>
+  <si>
     <t>6.4 Langue de programmation</t>
   </si>
   <si>
@@ -335,6 +405,10 @@
   </si>
   <si>
     <t>-0.5 validation.service.ts:35,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5 game-parameter.ts:14 : Francais / Anglais ?
+-0.5 place-service.ts: 144 </t>
   </si>
   <si>
     <t>6.5 Commentaires</t>
@@ -350,10 +424,21 @@
 -0.5 virtual.player.service:37</t>
   </si>
   <si>
+    <t>-0.25 pass-command.ts:5
+-1 sidebar-compoenent.ts
+-0.25 mouse-word-placer-compagnion.ts: 15
+-0.5 place-service.ts: 145,146</t>
+  </si>
+  <si>
     <t>6.6 Enums</t>
   </si>
   <si>
     <t>Le programme utilise des enums lorsqu'elles sont nécessaires</t>
+  </si>
+  <si>
+    <t>-0.5 scrabble-board.ts: orientation doit etre un enum
+-0.5 mouse-word-placer.ts: keyPressed doit etre un enum
+-0.5 mouse-word-placer.ts: orientation doit etre un enum</t>
   </si>
   <si>
     <t>6.7 Utilisation des classes et interfaces</t>
@@ -373,6 +458,12 @@
   <si>
     <t>-2 bonus.service.ts:70,90
 -4 grid.service.ts:92,168,211,225</t>
+  </si>
+  <si>
+    <t>-1.5 scrabble-board.ts:236-241, 248-262
+-1 grid.service.ts:101
+-1 mouse-word-placer-compagnion.ts: 21-33
+-1 mouse-word-placer.ts: 140-150</t>
   </si>
   <si>
     <t>6.9 ESLint</t>
@@ -389,6 +480,11 @@
 -0.5 validation.service.ts</t>
   </si>
   <si>
+    <t>-2 form-service.component.ts: eslint:disable
+-2 play-area.component.ts: eslint:disable
+-4 multiple eslint error</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.10 Imbrication </t>
   </si>
   <si>
@@ -400,6 +496,16 @@
 -3 virtual.player.service.ts:109</t>
   </si>
   <si>
+    <t>Note: Toujour utiliser une structure: if (condition) {code; return } si possible. 
+-0.5 scrabble-board.ts:210
+-1 rack-component.ts:88,109
+-0.5 exchange.service.ts:30
+-0.5 grid.service.ts:171
+-1 manipulation-rack.service.ts:57
+-0.5 mouse-word-placer.ts: 316
+-2 text-entry-service.ts: 71,162,193,229</t>
+  </si>
+  <si>
     <t>6.11 Performance</t>
   </si>
   <si>
@@ -421,10 +527,16 @@
     <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
   </si>
   <si>
+    <t>-0 - XX [dev] test</t>
+  </si>
+  <si>
     <t>7.3 Branches mortes</t>
   </si>
   <si>
     <t>Le repo git ne contient pas de branches mortes (stale branches).</t>
+  </si>
+  <si>
+    <t>Attention, vous avez des vieilles branches</t>
   </si>
   <si>
     <t>7.4 Gitlab</t>
@@ -434,6 +546,9 @@
 des commentaires sont ajoutés sur les Merge Requests pour documenter les demandes de changement lors du feedback, 
 les Merge Requests sont approuvé par au moins un membre de l'équipe avant la fusion
 les issues sont mises à jour, etc.</t>
+  </si>
+  <si>
+    <t>-2 Vous n'avez (presque) pas utiliser les merge requests</t>
   </si>
   <si>
     <t>7.5 Fichiers</t>
@@ -561,6 +676,10 @@
     <t>2.1 Mode multijoueur</t>
   </si>
   <si>
+    <t>-1 Bug avec le nombre de lettre dans la réserve.
+-1 le scrore du joeur adverse n'est pas mis à jour.</t>
+  </si>
+  <si>
     <t>2.2 Clavarder</t>
   </si>
   <si>
@@ -570,22 +689,120 @@
     <t>2.4 Paramètres de partie (minuterie et mode aléatoire)</t>
   </si>
   <si>
+    <t>-0.5 le timer se décrémente parfois 2 fois plus vite.</t>
+  </si>
+  <si>
     <t>2.5 Initialisation d'une nouvelle partie (mode multijoueur)</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Paramètres de partie: Oui
+2. Changement multijoueur -&gt; solo
+-0 pas une conversion
+3. Salle d'attente pour la personne qui a créé la partie: Oui
+4. Possible de rejoindre une salle d'attente: Oui
+5. Retirer la partie de l'affichage lorsqu'elle commence: Oui
+6. Retirer la partie de l'affichage si j'annule: Oui
+---TESTS---
+Client
+- FormComponent
+- WaitingAreaComponent
+- GameListService
+Serveur
+- GameListManagerService</t>
+  </si>
+  <si>
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Placer des lettres: Oui
+2. Sélection de la case vide: Oui
+3. Choisir une lettre avec le clavier: 
+-0 La lettre blanche doit s'affichée comme la lettre désirée sur le plateau de jeu
+4. Retirer une lettre: Oui
+5. Confirmer un placement: Oui
+6. Annuler un placement: Oui
+7. Affichage dans la boite de communication: Oui
+---TESTS---
+Client: 
+- MouseWordPlacerService
+- PlaceService
+- SoloGameService.place
+Serveur: Oui</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Sélection bouton droit: Oui
+2. Annuler la sélection lors du changement de récepteur: Oui
+3. Affichage du bouton échanger: Oui
+4. Affichage du bouton annuler: Oui
+5. Piger dans la réserve: Oui
+6. Affichage dans la boite de communucation: Oui
+---TESTS---
+Client: 
+- ExchangeService
+- ExchangeCommand
+- CommandInvokerService.executeCommand(command as ExchangeCmd)
+- GameService.exchangeLetters
+Server: 
+- SocketManagerService.socket.on('exchange letters')</t>
+  </si>
+  <si>
     <t>2.8 Abandonner une partie</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Bouton abandonner: Oui
+2. Abandonner à tout moment: Oui
+3. Message de confirmation: Oui
+4. Redirection à la page d'accueil: Oui
+5. Annuler l'abandon: Oui
+6. Abandonner déclare l'adversaire gagnant: Oui
+7. Fermeture du site web: Oui
+---TESTS---
+Client: 
+- SidebarComponent.quitGame, EndGamePopupComponent
+Server: 
+- SocketManagerService.socket.on('leaveRoom'), leaveRoom()</t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Manipulation en tout temps avec bouton gauche: Oui
+2. Manipulation: Oui
+3. Un seul type de sélection: Oui
+4. Annuler si une touche ne représente pas une lettre du chevalet: Oui
+---TESTS---
+Client: 
+- RackComponent.onLeftClick .selectedLetterPosition .onKeyDown
+- ManipulationRackService.handleSelection() .switchLeft() .switchRight() .selectByLetter()
+- RackService
+Server: N/A</t>
+  </si>
+  <si>
     <t>2.10 Commande réserve</t>
+  </si>
+  <si>
+    <t>---FONCTIONNALITÉS---
+1. Commande réserve: Oui
+2. Affichage de la lettre blanche: Oui
+3. Respect du format: Oui
+4. Affichage seulement pour le joueur ayant envoyé la commande: Oui
+5. Seulement accessible si débogage: Oui
+---TESTS---
+Client: 
+- TextEntryService.handleInput() .createCommand()
+- commandInvokerService.executeCommand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR - commentaires UI/UX
+- changer le fond des lettres placées sur le plateau de jeu pour que ce soit plus facile à distinguer </t>
   </si>
   <si>
     <t>Ne build pas</t>
@@ -631,13 +848,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -761,7 +984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +1134,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -1454,14 +1683,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1469,13 +1698,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1484,10 +1713,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,46 +1734,46 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1577,22 +1806,22 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,9 +1838,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1625,16 +1851,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,13 +1872,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,13 +1890,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,7 +1908,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1703,110 +1929,110 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1815,13 +2041,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,22 +2056,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,10 +2083,10 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1938,40 +2164,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="14" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="14" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="12" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="12" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1983,16 +2206,16 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,10 +2239,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,10 +2263,10 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,49 +2299,49 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="21" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="21" borderId="8" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="8" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="23" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2144,46 +2367,76 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2192,55 +2445,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2249,40 +2502,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2291,13 +2544,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,13 +2559,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2321,17 +2574,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2725,7 +2987,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2738,7 +3000,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="220"/>
+      <c r="A3" s="218"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +3010,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="208" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2759,18 +3021,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="210">
         <f>(Fonctionnalités!E20)</f>
         <v>0.45600000000000002</v>
       </c>
-      <c r="C4" s="213">
+      <c r="C4" s="211">
         <f>'Assurance Qualité'!C61</f>
         <v>0.69</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="211">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.54959999999999998</v>
       </c>
@@ -2783,42 +3045,42 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="215">
+      <c r="B5" s="213">
         <f>(Fonctionnalités!E36)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="216">
+        <v>0.84</v>
+      </c>
+      <c r="C5" s="214">
         <f>'Assurance Qualité'!F61</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="216">
+        <v>0.59</v>
+      </c>
+      <c r="D5" s="214">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="218">
+      <c r="B6" s="216">
         <f>(Fonctionnalités!E53)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="219">
+      <c r="C6" s="217">
         <f>'Assurance Qualité'!I61</f>
         <v>0</v>
       </c>
-      <c r="D6" s="219">
+      <c r="D6" s="217">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2855,8 +3117,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2866,7 +3128,7 @@
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" style="17" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="71" style="17" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
@@ -2875,85 +3137,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="221"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="221"/>
+      <c r="E5" s="219"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="221"/>
+      <c r="H5" s="219"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="221"/>
+      <c r="K5" s="219"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="252" t="s">
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="257" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="258"/>
-      <c r="K6" s="259"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="267"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="247"/>
-      <c r="P6" s="247"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="249"/>
-      <c r="B7" s="261"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2983,44 +3245,44 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="220"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="239"/>
-      <c r="C8" s="234" t="s">
+      <c r="B8" s="247"/>
+      <c r="C8" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="235"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="243"/>
+      <c r="E8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="234" t="s">
+      <c r="F8" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="235"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="234" t="s">
+      <c r="G8" s="243"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="235"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="105">
-      <c r="A9" s="77" t="s">
+    <row r="9" spans="1:17" ht="60">
+      <c r="A9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="225">
+      <c r="C9" s="223">
         <f>(3-2)/3</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3030,12 +3292,17 @@
       <c r="E9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="237">
+        <f>(3-1)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G9" s="48">
         <v>3</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="53"/>
       <c r="J9" s="49">
         <v>3</v>
       </c>
@@ -3045,10 +3312,10 @@
     </row>
     <row r="10" spans="1:17" ht="45">
       <c r="A10" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
@@ -3057,11 +3324,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G10" s="33">
         <v>2</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="39"/>
       <c r="J10" s="34">
         <v>2</v>
@@ -3070,14 +3342,14 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="45">
+    <row r="11" spans="1:17" ht="60">
       <c r="A11" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="231">
+        <v>27</v>
+      </c>
+      <c r="C11" s="229">
         <f>(3-2*0.5)/3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -3085,13 +3357,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="37">
+        <f>(3-3*0.25)/3</f>
+        <v>0.75</v>
+      </c>
       <c r="G11" s="33">
         <v>3</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="38" t="s">
+        <v>29</v>
+      </c>
       <c r="I11" s="39"/>
       <c r="J11" s="34">
         <v>3</v>
@@ -3102,10 +3379,10 @@
     </row>
     <row r="12" spans="1:17" ht="135">
       <c r="A12" s="21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" s="35">
         <f>(2-8*0.25)/2</f>
@@ -3115,13 +3392,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="37">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
       <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="39"/>
       <c r="J12" s="34">
         <v>2</v>
@@ -3130,14 +3412,14 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="135">
+    <row r="13" spans="1:17" ht="105">
       <c r="A13" s="21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="35">
+        <v>35</v>
+      </c>
+      <c r="C13" s="229">
         <f>(4-7*0.5)/4</f>
         <v>0.125</v>
       </c>
@@ -3145,13 +3427,18 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="232">
+        <f>(4-1*0.25)/4</f>
+        <v>0.9375</v>
+      </c>
       <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="34">
         <v>4</v>
@@ -3160,99 +3447,103 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:17" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="237"/>
-      <c r="C14" s="86">
+    <row r="14" spans="1:17" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A14" s="244" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="245"/>
+      <c r="C14" s="85">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>5.5</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="86">
         <f>SUM(D9:D13)</f>
         <v>14</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89">
+      <c r="E14" s="87"/>
+      <c r="F14" s="88">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="90">
+        <v>11</v>
+      </c>
+      <c r="G14" s="89">
         <f>SUM(G9:G13)</f>
         <v>14</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92">
+      <c r="H14" s="90"/>
+      <c r="I14" s="91">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="92">
         <f>SUM(J9:J13)</f>
         <v>14</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="244"/>
-      <c r="C15" s="234" t="s">
+      <c r="A15" s="251" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="252"/>
+      <c r="C15" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="234" t="s">
+      <c r="D15" s="243"/>
+      <c r="E15" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="235"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="234" t="s">
+      <c r="G15" s="243"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="235"/>
-      <c r="K15" s="59"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="45">
-      <c r="A16" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="61">
-        <v>1</v>
-      </c>
-      <c r="D16" s="62">
+      <c r="A16" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="60">
+        <v>1</v>
+      </c>
+      <c r="D16" s="61">
         <v>2</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68">
+      <c r="E16" s="62"/>
+      <c r="F16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="67">
         <v>2</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74">
+      <c r="H16" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73">
         <v>2</v>
       </c>
-      <c r="K16" s="75"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="30">
       <c r="A17" s="21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3260,13 +3551,18 @@
       <c r="D17" s="41">
         <v>3</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="303">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="76"/>
+      <c r="H17" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="75"/>
       <c r="J17" s="44">
         <v>3</v>
       </c>
@@ -3276,10 +3572,10 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3287,13 +3583,15 @@
       <c r="D18" s="41">
         <v>3</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="70"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="69">
+        <v>1</v>
+      </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="76"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="44">
         <v>3</v>
       </c>
@@ -3303,10 +3601,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3314,13 +3612,15 @@
       <c r="D19" s="41">
         <v>3</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="70"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="69">
+        <v>1</v>
+      </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="76"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3330,10 +3630,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3341,13 +3641,18 @@
       <c r="D20" s="41">
         <v>2</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="70"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="69">
+        <f>1.5/2</f>
+        <v>0.75</v>
+      </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="76"/>
+      <c r="H20" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="75"/>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3355,102 +3660,105 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="245" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="97">
+    <row r="21" spans="1:13" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A21" s="253" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="96">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>13</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="97">
         <f>SUM(D16:D20)</f>
         <v>13</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100">
+      <c r="E21" s="98"/>
+      <c r="F21" s="99">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="101">
+        <v>11</v>
+      </c>
+      <c r="G21" s="100">
         <f>SUM(G16:G20)</f>
         <v>13</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103">
+      <c r="H21" s="101"/>
+      <c r="I21" s="102">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="104">
+      <c r="J21" s="103">
         <f>SUM(J16:J20)</f>
         <v>13</v>
       </c>
-      <c r="K21" s="105"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="238" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="234" t="s">
+      <c r="A22" s="246" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="247"/>
+      <c r="C22" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="235"/>
-      <c r="E22" s="59" t="s">
+      <c r="D22" s="243"/>
+      <c r="E22" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="234" t="s">
+      <c r="F22" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="235"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="234" t="s">
+      <c r="G22" s="243"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="235"/>
-      <c r="K22" s="59"/>
+      <c r="J22" s="243"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
-      <c r="A23" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="83">
+      <c r="A23" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="233">
         <f>(2-0.25)/2</f>
         <v>0.875</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="83">
         <v>2</v>
       </c>
-      <c r="E23" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="108"/>
-      <c r="G23" s="109">
+      <c r="E23" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="107">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="108">
         <v>2</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114">
+      <c r="H23" s="109"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="113">
         <v>2</v>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="114"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="45">
-      <c r="A24" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>51</v>
+      <c r="A24" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="45">
         <f>(1-0.5)/1</f>
@@ -3459,15 +3767,18 @@
       <c r="D24" s="41">
         <v>1</v>
       </c>
-      <c r="E24" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="70"/>
+      <c r="E24" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="69">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="76"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="75"/>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3475,12 +3786,12 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
-      <c r="A25" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>54</v>
+    <row r="25" spans="1:13" ht="75">
+      <c r="A25" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>62</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3488,13 +3799,18 @@
       <c r="D25" s="41">
         <v>1</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="70"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="69">
+        <f>(1-0.25)/1</f>
+        <v>0.75</v>
+      </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="76"/>
+      <c r="H25" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="75"/>
       <c r="J25" s="44">
         <v>1</v>
       </c>
@@ -3502,99 +3818,101 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="241" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="86">
+    <row r="26" spans="1:13" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A26" s="249" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="250"/>
+      <c r="C26" s="85">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>3.25</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="86">
         <f>SUM(D23:D25)</f>
         <v>4</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="100">
+      <c r="E26" s="87"/>
+      <c r="F26" s="99">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="101">
+        <v>3.75</v>
+      </c>
+      <c r="G26" s="100">
         <f>SUM(G23:G25)</f>
         <v>4</v>
       </c>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103">
+      <c r="H26" s="101"/>
+      <c r="I26" s="102">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="104">
+      <c r="J26" s="103">
         <f>SUM(J23:J25)</f>
         <v>4</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="238" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="234" t="s">
+      <c r="A27" s="246" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="247"/>
+      <c r="C27" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="235"/>
-      <c r="E27" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="234" t="s">
+      <c r="D27" s="243"/>
+      <c r="E27" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="235"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="234" t="s">
+      <c r="G27" s="243"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="235"/>
-      <c r="K27" s="59"/>
+      <c r="J27" s="243"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
-      <c r="A28" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="111">
-        <v>1</v>
-      </c>
-      <c r="D28" s="60">
+      <c r="A28" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="110">
+        <v>1</v>
+      </c>
+      <c r="D28" s="59">
         <v>2</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="65">
+      <c r="E28" s="111"/>
+      <c r="F28" s="105">
+        <v>1</v>
+      </c>
+      <c r="G28" s="64">
         <v>2</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="72">
+      <c r="H28" s="65"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="71">
         <v>2</v>
       </c>
-      <c r="K28" s="118"/>
+      <c r="K28" s="117"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="30">
-      <c r="A29" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>59</v>
+      <c r="A29" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3602,13 +3920,15 @@
       <c r="D29" s="41">
         <v>2</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="70"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="69">
+        <v>1</v>
+      </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
       <c r="H29" s="43"/>
-      <c r="I29" s="76"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="44">
         <v>2</v>
       </c>
@@ -3618,10 +3938,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3629,13 +3949,15 @@
       <c r="D30" s="41">
         <v>2</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="70"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="69">
+        <v>1</v>
+      </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="75"/>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -3645,27 +3967,32 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="232">
+        <v>71</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="230">
         <f>2.75/3</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="D31" s="41">
         <v>3</v>
       </c>
-      <c r="E31" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="70"/>
+      <c r="E31" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="69">
+        <f>1.5/3</f>
+        <v>0.5</v>
+      </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="76"/>
+      <c r="H31" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="75"/>
       <c r="J31" s="44">
         <v>3</v>
       </c>
@@ -3673,118 +4000,127 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="237"/>
-      <c r="C32" s="86">
+    <row r="32" spans="1:13" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A32" s="244" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="245"/>
+      <c r="C32" s="85">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.75</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="86">
         <f>SUM(D28:D31)</f>
         <v>9</v>
       </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89">
+      <c r="E32" s="87"/>
+      <c r="F32" s="88">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="90">
+        <v>7.5</v>
+      </c>
+      <c r="G32" s="89">
         <f>SUM(G28:G31)</f>
         <v>9</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="103">
+      <c r="H32" s="115"/>
+      <c r="I32" s="102">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="104">
+      <c r="J32" s="103">
         <f>SUM(J28:J31)</f>
         <v>9</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="238" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="240"/>
-      <c r="C33" s="234" t="s">
+      <c r="A33" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="248"/>
+      <c r="C33" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="235"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="243"/>
+      <c r="E33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="234" t="s">
+      <c r="F33" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="235"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="57" t="s">
+      <c r="G33" s="243"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="58"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="30">
-      <c r="A34" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="111">
+      <c r="A34" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="110">
         <v>0</v>
       </c>
-      <c r="D34" s="60">
-        <v>1</v>
-      </c>
-      <c r="E34" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="65">
-        <v>1</v>
-      </c>
-      <c r="H34" s="107"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="72">
-        <v>1</v>
-      </c>
-      <c r="K34" s="118"/>
+      <c r="D34" s="59">
+        <v>1</v>
+      </c>
+      <c r="E34" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="105">
+        <v>0</v>
+      </c>
+      <c r="G34" s="64">
+        <v>1</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="116"/>
+      <c r="J34" s="71">
+        <v>1</v>
+      </c>
+      <c r="K34" s="117"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="30">
-      <c r="A35" s="55" t="s">
-        <v>69</v>
+      <c r="A35" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="233">
+        <v>80</v>
+      </c>
+      <c r="C35" s="231">
         <f>(1-2*0.25)/1</f>
         <v>0.5</v>
       </c>
       <c r="D35" s="41">
         <v>1</v>
       </c>
-      <c r="E35" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="70"/>
+      <c r="E35" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="69">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="75"/>
       <c r="J35" s="44">
         <v>1</v>
       </c>
@@ -3792,12 +4128,12 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="45">
+    <row r="36" spans="1:13" ht="105">
       <c r="A36" s="21" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C36" s="45">
         <f>(3-3*0.5)/3</f>
@@ -3806,15 +4142,20 @@
       <c r="D36" s="41">
         <v>3</v>
       </c>
-      <c r="E36" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="70"/>
+      <c r="E36" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="69">
+        <f>(3-6*0.25)/3</f>
+        <v>0.5</v>
+      </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="76"/>
+      <c r="H36" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="75"/>
       <c r="J36" s="44">
         <v>3</v>
       </c>
@@ -3822,29 +4163,34 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="30">
+    <row r="37" spans="1:13" ht="60">
       <c r="A37" s="21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="232">
+        <v>88</v>
+      </c>
+      <c r="C37" s="230">
         <f>(3-2*0.25)/3</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D37" s="41">
         <v>3</v>
       </c>
-      <c r="E37" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="70"/>
+      <c r="E37" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="69">
+        <f>(3-0.25*3)/3</f>
+        <v>0.75</v>
+      </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="76"/>
+      <c r="H37" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="75"/>
       <c r="J37" s="44">
         <v>3</v>
       </c>
@@ -3852,99 +4198,101 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="237"/>
-      <c r="C38" s="121">
+    <row r="38" spans="1:13" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A38" s="244" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="245"/>
+      <c r="C38" s="120">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>4.5</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="86">
         <f>SUM(D34:D37)</f>
         <v>8</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="122">
+      <c r="E38" s="87"/>
+      <c r="F38" s="121">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="90">
+        <v>4.75</v>
+      </c>
+      <c r="G38" s="89">
         <f>SUM(G34:G37)</f>
         <v>8</v>
       </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="103">
+      <c r="H38" s="90"/>
+      <c r="I38" s="102">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="104">
+      <c r="J38" s="103">
         <f>SUM(J34:J37)</f>
         <v>8</v>
       </c>
-      <c r="K38" s="105"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="238" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="234" t="s">
+      <c r="A39" s="246" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="247"/>
+      <c r="C39" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="235"/>
-      <c r="E39" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="234" t="s">
+      <c r="D39" s="243"/>
+      <c r="E39" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="235"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="234" t="s">
+      <c r="G39" s="243"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="235"/>
-      <c r="K39" s="59"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="58"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="45">
-      <c r="A40" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="83">
-        <v>1</v>
-      </c>
-      <c r="D40" s="84">
-        <v>1</v>
-      </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109">
-        <v>1</v>
-      </c>
-      <c r="H40" s="110"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="114">
-        <v>1</v>
-      </c>
-      <c r="K40" s="115"/>
+      <c r="A40" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="82">
+        <v>1</v>
+      </c>
+      <c r="D40" s="83">
+        <v>1</v>
+      </c>
+      <c r="E40" s="84"/>
+      <c r="F40" s="107">
+        <v>1</v>
+      </c>
+      <c r="G40" s="108">
+        <v>1</v>
+      </c>
+      <c r="H40" s="109"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="113">
+        <v>1</v>
+      </c>
+      <c r="K40" s="114"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -3952,13 +4300,15 @@
       <c r="D41" s="41">
         <v>4</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="70"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="69">
+        <v>1</v>
+      </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
-      <c r="H41" s="71"/>
-      <c r="I41" s="76"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="75"/>
       <c r="J41" s="44">
         <v>4</v>
       </c>
@@ -3966,29 +4316,33 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="30">
+    <row r="42" spans="1:13" ht="90">
       <c r="A42" s="21" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="232">
+        <v>97</v>
+      </c>
+      <c r="C42" s="230">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D42" s="41">
         <v>3</v>
       </c>
-      <c r="E42" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="70"/>
+      <c r="E42" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="69">
+        <v>0</v>
+      </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="76"/>
+      <c r="H42" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="75"/>
       <c r="J42" s="44">
         <v>3</v>
       </c>
@@ -3998,10 +4352,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C43" s="45">
         <f>1.5/2</f>
@@ -4010,27 +4364,31 @@
       <c r="D43" s="41">
         <v>2</v>
       </c>
-      <c r="E43" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="70"/>
+      <c r="E43" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="69">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="76"/>
+      <c r="H43" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="75"/>
       <c r="J43" s="44">
         <v>2</v>
       </c>
       <c r="K43" s="46"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="150">
+    <row r="44" spans="1:13" ht="75">
       <c r="A44" s="21" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -4039,13 +4397,17 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>106</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0</v>
+      </c>
       <c r="G44" s="33">
         <v>2</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="38" t="s">
+        <v>107</v>
+      </c>
       <c r="I44" s="39"/>
       <c r="J44" s="34">
         <v>2</v>
@@ -4054,12 +4416,12 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="45">
       <c r="A45" s="21" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -4068,11 +4430,15 @@
         <v>3</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="F45" s="37">
+        <v>0.5</v>
+      </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="I45" s="39"/>
       <c r="J45" s="34">
         <v>3</v>
@@ -4083,27 +4449,29 @@
     </row>
     <row r="46" spans="1:13" ht="30">
       <c r="A46" s="21" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="232">
+        <v>112</v>
+      </c>
+      <c r="C46" s="230">
         <f>2.5/3</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D46" s="41">
         <v>3</v>
       </c>
-      <c r="E46" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="70"/>
+      <c r="E46" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="69">
+        <v>1</v>
+      </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
-      <c r="H46" s="71"/>
-      <c r="I46" s="76"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="75"/>
       <c r="J46" s="44">
         <v>3</v>
       </c>
@@ -4113,10 +4481,10 @@
     </row>
     <row r="47" spans="1:13" ht="83.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C47" s="45">
         <v>0</v>
@@ -4124,15 +4492,20 @@
       <c r="D47" s="41">
         <v>6</v>
       </c>
-      <c r="E47" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="70"/>
+      <c r="E47" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="69">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="75"/>
       <c r="J47" s="44">
         <v>6</v>
       </c>
@@ -4142,10 +4515,10 @@
     </row>
     <row r="48" spans="1:13" ht="123" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C48" s="45">
         <f>6/8</f>
@@ -4154,15 +4527,19 @@
       <c r="D48" s="41">
         <v>8</v>
       </c>
-      <c r="E48" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="70"/>
+      <c r="E48" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="69">
+        <v>0</v>
+      </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="76"/>
+      <c r="H48" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="75"/>
       <c r="J48" s="44">
         <v>8</v>
       </c>
@@ -4172,10 +4549,10 @@
     </row>
     <row r="49" spans="1:13" ht="127.5" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4183,15 +4560,19 @@
       <c r="D49" s="41">
         <v>6</v>
       </c>
-      <c r="E49" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="70"/>
+      <c r="E49" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="69">
+        <v>0</v>
+      </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="76"/>
+      <c r="H49" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" s="75"/>
       <c r="J49" s="44">
         <v>6</v>
       </c>
@@ -4201,10 +4582,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4212,13 +4593,13 @@
       <c r="D50" s="41">
         <v>3</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="70"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="69"/>
       <c r="G50" s="42">
         <v>3</v>
       </c>
-      <c r="H50" s="71"/>
-      <c r="I50" s="76"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4226,100 +4607,103 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="237"/>
-      <c r="C51" s="131">
+    <row r="51" spans="1:13" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A51" s="244" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="245"/>
+      <c r="C51" s="130">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>23</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D51" s="97">
         <f>SUM(D40:D50)</f>
         <v>41</v>
       </c>
-      <c r="E51" s="99"/>
-      <c r="F51" s="122">
+      <c r="E51" s="98"/>
+      <c r="F51" s="121">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="90">
+        <v>12</v>
+      </c>
+      <c r="G51" s="89">
         <f>SUM(G40:G50)</f>
         <v>41</v>
       </c>
-      <c r="H51" s="91"/>
-      <c r="I51" s="92">
+      <c r="H51" s="90"/>
+      <c r="I51" s="91">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
         <v>0</v>
       </c>
-      <c r="J51" s="93">
+      <c r="J51" s="92">
         <f>SUM(J40:J50)</f>
         <v>41</v>
       </c>
-      <c r="K51" s="94"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="238" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="240"/>
-      <c r="C52" s="234" t="s">
+      <c r="A52" s="246" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="248"/>
+      <c r="C52" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="235"/>
-      <c r="E52" s="59" t="s">
+      <c r="D52" s="243"/>
+      <c r="E52" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="234" t="s">
+      <c r="F52" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="235"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="234" t="s">
+      <c r="G52" s="243"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="235"/>
-      <c r="K52" s="59"/>
+      <c r="J52" s="243"/>
+      <c r="K52" s="58"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
-      <c r="A53" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="111">
+      <c r="A53" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="110">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="59">
         <v>2</v>
       </c>
-      <c r="E53" s="112"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="109">
+      <c r="E53" s="111"/>
+      <c r="F53" s="107">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="108">
         <v>2</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127">
+      <c r="H53" s="109"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="126">
         <v>2</v>
       </c>
-      <c r="K53" s="128"/>
+      <c r="K53" s="127"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C54" s="45">
         <v>1</v>
@@ -4327,26 +4711,31 @@
       <c r="D54" s="41">
         <v>2</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="70"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="69">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
-      <c r="H54" s="71"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="123">
+      <c r="H54" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="128"/>
+      <c r="J54" s="122">
         <v>2</v>
       </c>
-      <c r="K54" s="130"/>
+      <c r="K54" s="129"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="55" t="s">
-        <v>113</v>
+      <c r="A55" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C55" s="45">
         <v>1</v>
@@ -4354,26 +4743,31 @@
       <c r="D55" s="41">
         <v>1</v>
       </c>
-      <c r="E55" s="64"/>
-      <c r="F55" s="70"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="69">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
-      <c r="H55" s="71"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="123">
-        <v>1</v>
-      </c>
-      <c r="K55" s="130"/>
+      <c r="H55" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="128"/>
+      <c r="J55" s="122">
+        <v>1</v>
+      </c>
+      <c r="K55" s="129"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="105">
-      <c r="A56" s="55" t="s">
-        <v>115</v>
+      <c r="A56" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C56" s="45">
         <v>1</v>
@@ -4381,26 +4775,31 @@
       <c r="D56" s="41">
         <v>4</v>
       </c>
-      <c r="E56" s="64"/>
-      <c r="F56" s="70"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="69">
+        <f>(4-2)/4</f>
+        <v>0.5</v>
+      </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
-      <c r="H56" s="71"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="123">
+      <c r="H56" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="I56" s="128"/>
+      <c r="J56" s="122">
         <v>4</v>
       </c>
-      <c r="K56" s="130"/>
+      <c r="K56" s="129"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4408,132 +4807,135 @@
       <c r="D57" s="41">
         <v>2</v>
       </c>
-      <c r="E57" s="64"/>
-      <c r="F57" s="70"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="69">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
-      <c r="H57" s="71"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="123">
+      <c r="H57" s="70"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="122">
         <v>2</v>
       </c>
-      <c r="K57" s="130"/>
+      <c r="K57" s="129"/>
       <c r="L57" s="7"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="237"/>
-      <c r="C58" s="97">
+    <row r="58" spans="1:13" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A58" s="244" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="245"/>
+      <c r="C58" s="96">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>11</v>
       </c>
-      <c r="D58" s="98">
+      <c r="D58" s="97">
         <f>SUM(D53:D57)</f>
         <v>11</v>
       </c>
-      <c r="E58" s="99"/>
-      <c r="F58" s="100">
+      <c r="E58" s="98"/>
+      <c r="F58" s="99">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="101">
+        <v>9</v>
+      </c>
+      <c r="G58" s="100">
         <f>SUM(G53:G57)</f>
         <v>11</v>
       </c>
-      <c r="H58" s="102"/>
-      <c r="I58" s="92">
+      <c r="H58" s="101"/>
+      <c r="I58" s="91">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="93">
+      <c r="J58" s="92">
         <f>SUM(J53:J57)</f>
         <v>11</v>
       </c>
-      <c r="K58" s="94"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="262" t="s">
+      <c r="A59" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="263"/>
-      <c r="C59" s="263"/>
-      <c r="D59" s="263"/>
-      <c r="E59" s="263"/>
-      <c r="F59" s="263"/>
-      <c r="G59" s="263"/>
-      <c r="H59" s="263"/>
-      <c r="I59" s="263"/>
-      <c r="J59" s="263"/>
-      <c r="K59" s="264"/>
+      <c r="B59" s="271"/>
+      <c r="C59" s="271"/>
+      <c r="D59" s="271"/>
+      <c r="E59" s="271"/>
+      <c r="F59" s="271"/>
+      <c r="G59" s="271"/>
+      <c r="H59" s="271"/>
+      <c r="I59" s="271"/>
+      <c r="J59" s="271"/>
+      <c r="K59" s="272"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="265" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="266"/>
-      <c r="C60" s="132">
+      <c r="A60" s="273" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="274"/>
+      <c r="C60" s="131">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>69</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="61">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E60" s="63"/>
-      <c r="F60" s="133">
+      <c r="E60" s="62"/>
+      <c r="F60" s="132">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G60" s="67">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H60" s="68"/>
+      <c r="I60" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="68">
+      <c r="J60" s="123">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H60" s="69"/>
-      <c r="I60" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="124">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K60" s="125"/>
+      <c r="K60" s="124"/>
       <c r="L60" s="7"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="267" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="268"/>
-      <c r="C61" s="269">
+    <row r="61" spans="1:13" s="95" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A61" s="275" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="276"/>
+      <c r="C61" s="277">
         <f>C60/D60</f>
         <v>0.69</v>
       </c>
-      <c r="D61" s="270"/>
-      <c r="E61" s="271"/>
-      <c r="F61" s="272">
+      <c r="D61" s="278"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="280">
         <f>F60/G60</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="273"/>
-      <c r="H61" s="274"/>
-      <c r="I61" s="275">
+        <v>0.59</v>
+      </c>
+      <c r="G61" s="281"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="283">
         <f>I60/J60</f>
         <v>0</v>
       </c>
-      <c r="J61" s="276"/>
-      <c r="K61" s="277"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
+      <c r="J61" s="284"/>
+      <c r="K61" s="285"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -4606,1010 +5008,1052 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="137" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="137"/>
-    <col min="5" max="5" width="11" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="137" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="137" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="137"/>
+    <col min="1" max="1" width="50.5703125" style="136" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="136"/>
+    <col min="5" max="5" width="11" style="136" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="136" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" style="136" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="136"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="136" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
+      <c r="A4" s="135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="288"/>
+      <c r="B6" s="295"/>
+      <c r="C6" s="295"/>
+      <c r="D6" s="295"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="296"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="160" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="289"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
+      <c r="A7" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="297"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="209" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="188" t="s">
+      <c r="A8" s="207" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="188" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="188" t="s">
+      <c r="C8" s="186" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="188" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="188" t="s">
+      <c r="E8" s="186" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="189" t="s">
+      <c r="G8" s="187" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="147" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="140">
-        <v>1</v>
-      </c>
-      <c r="C9" s="140">
-        <v>1</v>
-      </c>
-      <c r="D9" s="140">
+      <c r="A9" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="139">
+        <v>1</v>
+      </c>
+      <c r="C9" s="139">
+        <v>1</v>
+      </c>
+      <c r="D9" s="139">
         <v>5</v>
       </c>
-      <c r="E9" s="140">
+      <c r="E9" s="139">
         <f t="shared" ref="E9:E19" si="0">B9*C9*D9</f>
         <v>5</v>
       </c>
-      <c r="F9" s="223" t="s">
+      <c r="F9" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="148"/>
+      <c r="G9" s="147"/>
     </row>
     <row r="10" spans="1:7" ht="75">
-      <c r="A10" s="190" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="191">
+      <c r="A10" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="189">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="C10" s="191">
-        <v>1</v>
-      </c>
-      <c r="D10" s="191">
+      <c r="C10" s="189">
+        <v>1</v>
+      </c>
+      <c r="D10" s="189">
         <v>5</v>
       </c>
-      <c r="E10" s="191">
+      <c r="E10" s="189">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10" s="224" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="229" t="s">
-        <v>128</v>
+      <c r="F10" s="241" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="227" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="210">
-      <c r="A11" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="227">
+      <c r="A11" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="225">
         <f>3/18</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C11" s="140">
+      <c r="C11" s="139">
         <v>0.25</v>
       </c>
-      <c r="D11" s="140">
+      <c r="D11" s="139">
         <v>18</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="139">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F11" s="223" t="s">
+      <c r="F11" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="226" t="s">
-        <v>130</v>
+      <c r="G11" s="224" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="190" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="191">
+      <c r="A12" s="188" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="189">
         <v>0.3</v>
       </c>
-      <c r="C12" s="191">
+      <c r="C12" s="189">
         <v>0.75</v>
       </c>
-      <c r="D12" s="191">
+      <c r="D12" s="189">
         <v>16</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="189">
         <f>B12*C12*D12</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="F12" s="224" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="229" t="s">
-        <v>132</v>
+      <c r="F12" s="222" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="227" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="120">
-      <c r="A13" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="140">
+      <c r="A13" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="139">
         <f>(10-1.75)/10</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="C13" s="140">
+      <c r="C13" s="139">
         <v>0.5</v>
       </c>
-      <c r="D13" s="140">
+      <c r="D13" s="139">
         <v>10</v>
       </c>
-      <c r="E13" s="140">
+      <c r="E13" s="139">
         <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
-      <c r="F13" s="223" t="s">
+      <c r="F13" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="226" t="s">
-        <v>134</v>
+      <c r="G13" s="224" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="140">
+      <c r="A14" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="139">
         <f>7.5/8</f>
         <v>0.9375</v>
       </c>
-      <c r="C14" s="140">
+      <c r="C14" s="139">
         <v>0.75</v>
       </c>
-      <c r="D14" s="140">
+      <c r="D14" s="139">
         <v>8</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="139">
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="F14" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="148" t="s">
-        <v>136</v>
+      <c r="F14" s="221" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="147" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75">
-      <c r="A15" s="190" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="228">
+      <c r="A15" s="188" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="226">
         <f>8/12</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C15" s="191">
+      <c r="C15" s="189">
         <v>0.25</v>
       </c>
-      <c r="D15" s="191">
+      <c r="D15" s="189">
         <v>12</v>
       </c>
-      <c r="E15" s="191">
+      <c r="E15" s="189">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="230" t="s">
+      <c r="F15" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="229" t="s">
-        <v>138</v>
+      <c r="G15" s="227" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="147" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="140">
+      <c r="A16" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="139">
         <f>9/10</f>
         <v>0.9</v>
       </c>
-      <c r="C16" s="140">
-        <v>1</v>
-      </c>
-      <c r="D16" s="140">
+      <c r="C16" s="139">
+        <v>1</v>
+      </c>
+      <c r="D16" s="139">
         <v>10</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="139">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F16" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="148" t="s">
-        <v>140</v>
+      <c r="F16" s="221" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="147" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="190" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="191">
+      <c r="A17" s="188" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="189">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="C17" s="191">
-        <v>1</v>
-      </c>
-      <c r="D17" s="191">
+      <c r="C17" s="189">
+        <v>1</v>
+      </c>
+      <c r="D17" s="189">
         <v>4</v>
       </c>
-      <c r="E17" s="191">
+      <c r="E17" s="189">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F17" s="224" t="s">
+      <c r="F17" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="192"/>
+      <c r="G17" s="190"/>
     </row>
     <row r="18" spans="1:7" ht="45">
-      <c r="A18" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="140">
+      <c r="A18" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="139">
         <f>4/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" s="140">
-        <v>1</v>
-      </c>
-      <c r="D18" s="140">
+      <c r="C18" s="139">
+        <v>1</v>
+      </c>
+      <c r="D18" s="139">
         <v>6</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="139">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="226" t="s">
-        <v>143</v>
+      <c r="F18" s="221" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="224" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="228">
-        <v>1</v>
-      </c>
-      <c r="C19" s="191">
+      <c r="A19" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="226">
+        <v>1</v>
+      </c>
+      <c r="C19" s="189">
         <v>0.75</v>
       </c>
-      <c r="D19" s="191">
+      <c r="D19" s="189">
         <v>6</v>
       </c>
-      <c r="E19" s="191">
+      <c r="E19" s="189">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F19" s="224" t="s">
+      <c r="F19" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="229" t="s">
-        <v>145</v>
+      <c r="G19" s="227" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="170" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="291"/>
-      <c r="C20" s="291"/>
-      <c r="D20" s="222">
+      <c r="A20" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="299"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="220">
         <f>SUM(D9:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="171">
+      <c r="E20" s="169">
         <f>SUM(E9:E19)/D20 + E22*D22 + E21*D21</f>
         <v>0.45600000000000002</v>
       </c>
-      <c r="F20" s="173"/>
-      <c r="G20" s="172"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="170"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="188" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192">
+        <v>-0.15</v>
+      </c>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="193"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A22" s="148" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150">
+        <v>-0.2</v>
+      </c>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="151"/>
+    </row>
+    <row r="23" spans="1:7" ht="24" thickBot="1">
+      <c r="A23" s="300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="301"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="301"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="301"/>
+      <c r="G23" s="302"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="287"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="287"/>
+      <c r="G24" s="288"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194">
-        <v>-0.15</v>
-      </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="195"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="149" t="s">
+      <c r="D25" s="194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="194" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151">
-        <v>-0.2</v>
-      </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="152"/>
-    </row>
-    <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="292" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="293"/>
-      <c r="C23" s="293"/>
-      <c r="D23" s="293"/>
-      <c r="E23" s="293"/>
-      <c r="F23" s="293"/>
-      <c r="G23" s="294"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="159" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="279"/>
-      <c r="C24" s="279"/>
-      <c r="D24" s="279"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="280"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="208" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="196" t="s">
+      <c r="F25" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="152" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="304">
+        <f>22/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C26" s="140">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="140">
+        <v>24</v>
+      </c>
+      <c r="E26" s="140">
+        <f>B26*C26*D26</f>
+        <v>16.5</v>
+      </c>
+      <c r="F26" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="234" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="196" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="197">
+        <v>1</v>
+      </c>
+      <c r="C27" s="197">
+        <v>1</v>
+      </c>
+      <c r="D27" s="197">
+        <v>8</v>
+      </c>
+      <c r="E27" s="197">
+        <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
+        <v>8</v>
+      </c>
+      <c r="F27" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="198"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="140">
+        <v>1</v>
+      </c>
+      <c r="C28" s="140">
+        <v>1</v>
+      </c>
+      <c r="D28" s="140">
+        <v>10</v>
+      </c>
+      <c r="E28" s="140">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F28" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="160"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="196" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="197">
+        <v>1</v>
+      </c>
+      <c r="C29" s="197">
+        <v>1</v>
+      </c>
+      <c r="D29" s="197">
+        <v>8</v>
+      </c>
+      <c r="E29" s="197">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="198" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="225">
+      <c r="A30" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="140">
+        <f>10/10</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="140">
+        <v>1</v>
+      </c>
+      <c r="D30" s="140">
+        <v>10</v>
+      </c>
+      <c r="E30" s="140">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F30" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="234" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="240">
+      <c r="A31" s="196" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="197">
+        <f>12/12</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="197">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="197">
+        <v>12</v>
+      </c>
+      <c r="E31" s="197">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F31" s="197" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="238" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="255">
+      <c r="A32" s="152" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="140">
+        <v>1</v>
+      </c>
+      <c r="C32" s="140">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="140">
+        <v>10</v>
+      </c>
+      <c r="E32" s="140">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="234" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="225">
+      <c r="A33" s="196" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="197">
+        <v>1</v>
+      </c>
+      <c r="C33" s="197">
+        <v>1</v>
+      </c>
+      <c r="D33" s="197">
         <v>4</v>
       </c>
-      <c r="E25" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="196" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="197" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="141">
-        <v>0</v>
-      </c>
-      <c r="C26" s="141">
-        <v>0</v>
-      </c>
-      <c r="D26" s="141">
-        <v>24</v>
-      </c>
-      <c r="E26" s="141">
-        <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="141"/>
-      <c r="G26" s="161"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="198" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="199">
-        <v>0</v>
-      </c>
-      <c r="C27" s="199">
-        <v>0</v>
-      </c>
-      <c r="D27" s="199">
-        <v>8</v>
-      </c>
-      <c r="E27" s="199">
-        <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="199"/>
-      <c r="G27" s="200"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="141">
-        <v>0</v>
-      </c>
-      <c r="C28" s="141">
-        <v>0</v>
-      </c>
-      <c r="D28" s="141">
+      <c r="E33" s="197">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="197" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="238" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="210">
+      <c r="A34" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="140">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="140">
+        <v>1</v>
+      </c>
+      <c r="D34" s="140">
         <v>10</v>
       </c>
-      <c r="E28" s="141">
+      <c r="E34" s="140">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="141"/>
-      <c r="G28" s="161"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="198" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="199">
-        <v>0</v>
-      </c>
-      <c r="C29" s="199">
-        <v>0</v>
-      </c>
-      <c r="D29" s="199">
-        <v>8</v>
-      </c>
-      <c r="E29" s="199">
+        <v>10</v>
+      </c>
+      <c r="F34" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="239" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="165">
+      <c r="A35" s="235" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="236">
+        <v>1</v>
+      </c>
+      <c r="C35" s="236">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="236">
+        <v>4</v>
+      </c>
+      <c r="E35" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="199"/>
-      <c r="G29" s="200"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="141">
-        <v>0</v>
-      </c>
-      <c r="C30" s="141">
-        <v>0</v>
-      </c>
-      <c r="D30" s="141">
-        <v>10</v>
-      </c>
-      <c r="E30" s="141">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="141"/>
-      <c r="G30" s="161"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="198" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="199">
-        <v>0</v>
-      </c>
-      <c r="C31" s="199">
-        <v>0</v>
-      </c>
-      <c r="D31" s="199">
-        <v>12</v>
-      </c>
-      <c r="E31" s="199">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="199"/>
-      <c r="G31" s="200"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="141">
-        <v>0</v>
-      </c>
-      <c r="C32" s="141">
-        <v>0</v>
-      </c>
-      <c r="D32" s="141">
-        <v>10</v>
-      </c>
-      <c r="E32" s="141">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="141"/>
-      <c r="G32" s="161"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="198" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="199">
-        <v>0</v>
-      </c>
-      <c r="C33" s="199">
-        <v>0</v>
-      </c>
-      <c r="D33" s="199">
-        <v>4</v>
-      </c>
-      <c r="E33" s="199">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="199"/>
-      <c r="G33" s="200"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="153" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="141">
-        <v>0</v>
-      </c>
-      <c r="C34" s="141">
-        <v>0</v>
-      </c>
-      <c r="D34" s="141">
-        <v>10</v>
-      </c>
-      <c r="E34" s="141">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="141"/>
-      <c r="G34" s="161"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="141">
-        <v>0</v>
-      </c>
-      <c r="C35" s="141">
-        <v>0</v>
-      </c>
-      <c r="D35" s="141">
-        <v>4</v>
-      </c>
-      <c r="E35" s="141">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="141"/>
-      <c r="G35" s="161"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167">
+        <v>1</v>
+      </c>
+      <c r="F35" s="236" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="240" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36" s="165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166">
         <f>SUM(D26:D35)</f>
         <v>100</v>
       </c>
-      <c r="E36" s="168">
+      <c r="E36" s="167">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
+        <v>0.84</v>
+      </c>
+      <c r="F36" s="167"/>
+      <c r="G36" s="305" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="196" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="200">
+        <v>-0.15</v>
+      </c>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="201"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="152" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="142">
+        <v>-0.2</v>
+      </c>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="153"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A39" s="202" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="204">
+        <v>-0.05</v>
+      </c>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
+      <c r="G39" s="205"/>
+    </row>
+    <row r="40" spans="1:7" ht="24" thickBot="1">
+      <c r="A40" s="289" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="290"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="291"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="157" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="292"/>
+      <c r="C41" s="292"/>
+      <c r="D41" s="292"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="293"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="176" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="176" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="143">
         <v>0</v>
       </c>
-      <c r="F36" s="168"/>
-      <c r="G36" s="169"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="198" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="202">
-        <v>-0.15</v>
-      </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="203"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="143">
-        <v>-0.2</v>
-      </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="154"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="204" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="206">
-        <v>-0.05</v>
-      </c>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="207"/>
-    </row>
-    <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="281" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="282"/>
-      <c r="C40" s="282"/>
-      <c r="D40" s="282"/>
-      <c r="E40" s="282"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="283"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="158" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="284"/>
-      <c r="C41" s="284"/>
-      <c r="D41" s="284"/>
-      <c r="E41" s="284"/>
-      <c r="F41" s="284"/>
-      <c r="G41" s="285"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="177" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="178" t="s">
+      <c r="C43" s="143">
+        <v>0</v>
+      </c>
+      <c r="D43" s="143">
         <v>14</v>
       </c>
-      <c r="C42" s="178" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="178" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="180" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="144">
-        <v>0</v>
-      </c>
-      <c r="C43" s="144">
-        <v>0</v>
-      </c>
-      <c r="D43" s="144">
-        <v>14</v>
-      </c>
-      <c r="E43" s="144">
+      <c r="E43" s="143">
         <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="144"/>
-      <c r="G43" s="156"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="155"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="174" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="175">
+      <c r="A44" s="172" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="173">
         <v>0</v>
       </c>
-      <c r="C44" s="175">
+      <c r="C44" s="173">
         <v>0</v>
       </c>
-      <c r="D44" s="175">
+      <c r="D44" s="173">
         <v>10</v>
       </c>
-      <c r="E44" s="175">
+      <c r="E44" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="175"/>
-      <c r="G44" s="176"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="174"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="144">
+      <c r="A45" s="154" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="143">
         <v>0</v>
       </c>
-      <c r="C45" s="144">
+      <c r="C45" s="143">
         <v>0</v>
       </c>
-      <c r="D45" s="144">
+      <c r="D45" s="143">
         <v>12</v>
       </c>
-      <c r="E45" s="144">
+      <c r="E45" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="144"/>
-      <c r="G45" s="156"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="155"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="174" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="175">
+      <c r="A46" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="173">
         <v>0</v>
       </c>
-      <c r="C46" s="175">
+      <c r="C46" s="173">
         <v>0</v>
       </c>
-      <c r="D46" s="175">
+      <c r="D46" s="173">
         <v>18</v>
       </c>
-      <c r="E46" s="175">
+      <c r="E46" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="174"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="155" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="144">
+      <c r="A47" s="154" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="143">
         <v>0</v>
       </c>
-      <c r="C47" s="144">
+      <c r="C47" s="143">
         <v>0</v>
       </c>
-      <c r="D47" s="144">
+      <c r="D47" s="143">
         <v>16</v>
       </c>
-      <c r="E47" s="144">
+      <c r="E47" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="144"/>
-      <c r="G47" s="156"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="155"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="175">
+      <c r="A48" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="173">
         <v>0</v>
       </c>
-      <c r="C48" s="175">
+      <c r="C48" s="173">
         <v>0</v>
       </c>
-      <c r="D48" s="175">
+      <c r="D48" s="173">
         <v>6</v>
       </c>
-      <c r="E48" s="175">
+      <c r="E48" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="175"/>
-      <c r="G48" s="176"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="174"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="144">
+      <c r="A49" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="143">
         <v>0</v>
       </c>
-      <c r="C49" s="144">
+      <c r="C49" s="143">
         <v>0</v>
       </c>
-      <c r="D49" s="144">
+      <c r="D49" s="143">
         <v>6</v>
       </c>
-      <c r="E49" s="144">
+      <c r="E49" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="144"/>
-      <c r="G49" s="156"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="155"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="174" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" s="175">
+      <c r="A50" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="173">
         <v>0</v>
       </c>
-      <c r="C50" s="175">
+      <c r="C50" s="173">
         <v>0</v>
       </c>
-      <c r="D50" s="175">
+      <c r="D50" s="173">
         <v>6</v>
       </c>
-      <c r="E50" s="175">
+      <c r="E50" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="175"/>
-      <c r="G50" s="176"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="174"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="144">
+      <c r="A51" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="143">
         <v>0</v>
       </c>
-      <c r="C51" s="144">
+      <c r="C51" s="143">
         <v>0</v>
       </c>
-      <c r="D51" s="144">
+      <c r="D51" s="143">
         <v>8</v>
       </c>
-      <c r="E51" s="144">
+      <c r="E51" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="144"/>
-      <c r="G51" s="156"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="155"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="174" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="175">
+      <c r="A52" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="173">
         <v>0</v>
       </c>
-      <c r="C52" s="175">
+      <c r="C52" s="173">
         <v>0</v>
       </c>
-      <c r="D52" s="175">
+      <c r="D52" s="173">
         <v>4</v>
       </c>
-      <c r="E52" s="175">
+      <c r="E52" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F52" s="175"/>
-      <c r="G52" s="176"/>
+      <c r="F52" s="173"/>
+      <c r="G52" s="174"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="162" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163">
+      <c r="A53" s="161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="162"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162">
         <f>SUM(D43:D52)</f>
         <v>100</v>
       </c>
-      <c r="E53" s="164">
+      <c r="E53" s="163">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
         <v>0</v>
       </c>
-      <c r="F53" s="164"/>
-      <c r="G53" s="165"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="164"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="174" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="182">
+      <c r="A54" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="179"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="180">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="181"/>
-      <c r="F54" s="181"/>
-      <c r="G54" s="183"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="181"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="155" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146">
+      <c r="A55" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145">
         <v>-0.2</v>
       </c>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="157"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="156"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="184" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="185"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="186">
+      <c r="A56" s="182" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="183"/>
+      <c r="C56" s="183"/>
+      <c r="D56" s="184">
         <v>-0.05</v>
       </c>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="187"/>
+      <c r="E56" s="183"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Equipe304.xlsx
+++ b/Equipe304.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{145DC396-CA8D-4BCB-8AA5-9EEE7BDB199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BEBA10B-3E3F-4160-BA8A-90A857FC8F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="224">
   <si>
     <t>Fonct.</t>
   </si>
@@ -108,6 +108,14 @@
 -0.5 ExchangeParams, CommandParams</t>
   </si>
   <si>
+    <t>-1 Server:SocketManagerService</t>
+  </si>
+  <si>
+    <t>-0.5 Client:GameService
+-1 Client:VirtualPlayerService
+-1 Server:SocketManagerService</t>
+  </si>
+  <si>
     <t>1.2 Nom</t>
   </si>
   <si>
@@ -116,6 +124,9 @@
 Le format à utiliser est le PascalCase</t>
   </si>
   <si>
+    <t>-0 Client:FormComponent - trouver un nom plus représentatif</t>
+  </si>
+  <si>
     <t>1.3 Attributs</t>
   </si>
   <si>
@@ -126,6 +137,11 @@
   <si>
     <t>-0.5 RackService:squareHeight
 -0.5 ValidationService:updatePlayerScore</t>
+  </si>
+  <si>
+    <t>-0.25 Client:ChatDisplayService:sendSystemMessageToServer
+-0.25 Client:GameListService:getList
+-0.25 Client:ManipulationRackService:letterSelectedPostion, firstOccurencePosition</t>
   </si>
   <si>
     <t>1.4 Accessibilité</t>
@@ -144,6 +160,16 @@
 -0.25 WordBuilder.Service.completeWordInADirection</t>
   </si>
   <si>
+    <t>Client:BonusService:useVerticalWordBonus
+Client:ChatDisplayService: socketOnConnect
+Client:CommandInvokerService:displayExecutionResultMessages
+Client:GridService:drawSinglequareColor
+Client:LetterStockService:addLettersToStock
+Client:MouseWordPlacerService:findPlaceForLetter
+Client:MultiPlayerGameService:updateBoard
+Client:PlaceService:placeLetter</t>
+  </si>
+  <si>
     <t>1.5 Valeur par défaut</t>
   </si>
   <si>
@@ -159,6 +185,15 @@
 -0.5 RackService</t>
   </si>
   <si>
+    <t>Client:ScrabbleBoard
+Server:ScrabbleBoard</t>
+  </si>
+  <si>
+    <t>-0.2 Client:DictionaryTransferComponent
+-0 Client:GameInitComponent
+-0.2 Client:VirtualPlayerNameManagerComponent</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -175,10 +210,23 @@
 Le format à utiliser doit être uniforme dans tous les fichiers (camelCase, PascalCase, ...)</t>
   </si>
   <si>
+    <t>-1 de nombreux typo dans le code
+virtual</t>
+  </si>
+  <si>
     <t>2.2 Utilité</t>
   </si>
   <si>
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
+  </si>
+  <si>
+    <t>-0.5 virtual-player.service.ts:160</t>
+  </si>
+  <si>
+    <t>-0.5 scrabble-board.ts isWordTouchingOtherWord()
+-0.5 mouse-word-placer.service.ts : placeLetter()
+-0  PlaceService: place()
+-1 VirtualPlayerService playTurn()</t>
   </si>
   <si>
     <t>2.3 Nombre de paramètres</t>
@@ -200,6 +248,9 @@
     <t>Tous les paramètres de fonction sont utilisés</t>
   </si>
   <si>
+    <t>-0.5 word-builder-service.ts: 19</t>
+  </si>
+  <si>
     <t>3. Exceptions</t>
   </si>
   <si>
@@ -228,6 +279,12 @@
     <t>Tout code asynchrone (Promise, Observable ou Event) doit être géré adéquatement.</t>
   </si>
   <si>
+    <t>Il faut unsubscribe lorsqu'un component est détruit. Voici un exemple pour Client:PlayAreaComponent:
+playerSub = this.gameService.currentGameService...subscribe(...)
+ngOnDestroy() { this.playerSub.unsubscribe() }
+-0.25 PlayAreaComponent</t>
+  </si>
+  <si>
     <t>4. Variables</t>
   </si>
   <si>
@@ -256,6 +313,12 @@
   </si>
   <si>
     <t>-0.25 chat-display.service.ts:46</t>
+  </si>
+  <si>
+    <t>-1 de nombreux typo dans le code</t>
+  </si>
+  <si>
+    <t>-0 cmd / command</t>
   </si>
   <si>
     <t>5. Expression booléennes</t>
@@ -271,6 +334,15 @@
 -0.25 ValidationService</t>
   </si>
   <si>
+    <t>-0.75 Client:FormComponent
+-0.25 Client:ActivateGuardService</t>
+  </si>
+  <si>
+    <t>-0.25 Client:ExchangeService
+-0.5 Client:GameService
+-0.25 Client:MouseWordPlacerService</t>
+  </si>
+  <si>
     <t>5.2 Logique booléenne négative</t>
   </si>
   <si>
@@ -279,6 +351,15 @@
   <si>
     <t>-0.25 RackService:43
 -0.25 ValidationService</t>
+  </si>
+  <si>
+    <t>Attention à "(!A &amp;&amp; !B)"</t>
+  </si>
+  <si>
+    <t>-0 Client:Utilities:97
+-0 Client:ScrabbleBoard:80
+-0.25 Client:GameService:315
+-0.25 Client:TextEntryService:isValidWordInput, isValidExchangeWord</t>
   </si>
   <si>
     <t>5.3 Opérateurs ternaires</t>
@@ -292,6 +373,20 @@
 -0.5 SidebarComponent:61</t>
   </si>
   <si>
+    <t>-0.25 Client:ActivateGuardService:17
+-0.25 Client:SidebarComponent:83
+-0.25 Client:ChatDisplayComponent:32
+-0.25 Client:FormComponent:43
+-0 Server:PlayerManagerService:18
+-0.25 Client:ScrabbleBoard:isWordPassingInCenter
+-0.25 Client:PlaceService:canPlaceWord</t>
+  </si>
+  <si>
+    <t>-0.25 Client:ChatDisplayComponent:32
+-0.25 Client:SidebarComponent:116
+-0.25 Client:ActivateGuardService:14</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -303,6 +398,19 @@
 -0.25 SoloGameService:308</t>
   </si>
   <si>
+    <t>-0.25 Client:MouseWordPlacerService:44, 130
+-0.25 Client:PlaceService:94
+-0 Client:VirtualPlayerService:210
+-0.25 Client:VirtualPlayerService:280</t>
+  </si>
+  <si>
+    <t>-0.25 Client:ActivateTwoBonuses:22
+-0.25 Client:BonusService:99-100,103-104
+-0.25 Client:GameService:168
+-0.25 Client:MouseWordPlace:142
+-0.25 Client:VirtualPlayerService:335</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -328,6 +436,14 @@
 -0.5 virtual-player.service.ts</t>
   </si>
   <si>
+    <t>-0.5 game-list.service.ts: espacement
+-0.5 mouse-word-placer-compagnion.ts: espacement
+-0.5 mouse-word-placer.ts: espacement
+-0.5 place-service.ts: espacement
+-0.5 solo-game-service.ts: espacement
+-0.5 game-list-manager-service.ts: espacement</t>
+  </si>
+  <si>
     <t>6.4 Langue de programmation</t>
   </si>
   <si>
@@ -335,6 +451,10 @@
   </si>
   <si>
     <t>-0.5 validation.service.ts:35,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5 game-parameter.ts:14 : Francais / Anglais ?
+-0.5 place-service.ts: 144 </t>
   </si>
   <si>
     <t>6.5 Commentaires</t>
@@ -350,10 +470,25 @@
 -0.5 virtual.player.service:37</t>
   </si>
   <si>
+    <t>-0.25 pass-command.ts:5
+-1 sidebar-compoenent.ts
+-0.25 mouse-word-placer-compagnion.ts: 15
+-0.5 place-service.ts: 145,146</t>
+  </si>
+  <si>
+    <t>-0.5 BestScoresComponent: 33
+-0 AdminPageComponent
+-0 Les commentaires TODO sont inutiles pour le dernier sprint
+-0.5 PlaceService</t>
+  </si>
+  <si>
     <t>6.6 Enums</t>
   </si>
   <si>
     <t>Le programme utilise des enums lorsqu'elles sont nécessaires</t>
+  </si>
+  <si>
+    <t>-0.5 scrabble-board.ts: orientation doit etre un enum</t>
   </si>
   <si>
     <t>6.7 Utilisation des classes et interfaces</t>
@@ -373,6 +508,17 @@
   <si>
     <t>-2 bonus.service.ts:70,90
 -4 grid.service.ts:92,168,211,225</t>
+  </si>
+  <si>
+    <t>-1.5 scrabble-board.ts:236-241, 248-262
+-1 grid.service.ts:101
+-1 mouse-word-placer-compagnion.ts: 21-33
+-1 mouse-word-placer.ts: 140-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 scrabble-board.ts isWordTouchingOtherWord() : 226, 241: Faire une fonction helper pour reduire la complexité
+-1 BonusService: useHorizontalWordBonus et useVerticalWordBonus
+</t>
   </si>
   <si>
     <t>6.9 ESLint</t>
@@ -389,6 +535,18 @@
 -0.5 validation.service.ts</t>
   </si>
   <si>
+    <t>-2 form-service.component.ts: eslint:disable
+-2 play-area.component.ts: eslint:disable
+-4 multiple eslint error</t>
+  </si>
+  <si>
+    <t>-2 eslint-disable-next-line complexity
+-0 TextEntryService: eslint-disable-line @typescript-eslint/ban-types (Juste un warning): Vous pouvez utiliser le type "CallableFunction" à la place de "Function" pour votre Map.
+VirtualPlayerService: 
+-2 eslint-disable max-lines
+-2 eslint-disable  @typescript-eslint/no-unused-expressions</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.10 Imbrication </t>
   </si>
   <si>
@@ -400,6 +558,21 @@
 -3 virtual.player.service.ts:109</t>
   </si>
   <si>
+    <t>Note: Toujour utiliser une structure: if (condition) {code; return } si possible. 
+-0.5 scrabble-board.ts:210
+-1 rack-component.ts:88,109
+-0.5 exchange.service.ts:30
+-0.5 grid.service.ts:171
+-1 manipulation-rack.service.ts:57
+-0.5 mouse-word-placer.ts: 316
+-2 text-entry-service.ts: 71,162,193,229</t>
+  </si>
+  <si>
+    <t>-1 mouse-word-placer.service.ts : drawCurrentWord()
+-1.5  TextEntryService:  extractPlaceParams, extractExchangeParams, isValidExchangeWord
+- 3.5 VirtualPlayerService: permutationsWithBoard, makeMoves, movesWithRack.......</t>
+  </si>
+  <si>
     <t>6.11 Performance</t>
   </si>
   <si>
@@ -415,16 +588,25 @@
     <t>La branche de production possède le bon TAG pour les remises de sprint (sprint1, sprint2, sprint3)</t>
   </si>
   <si>
+    <t>-1 Mauvaise branche</t>
+  </si>
+  <si>
     <t>7.2 Commit</t>
   </si>
   <si>
     <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
   </si>
   <si>
+    <t>-0 - XX [dev] test</t>
+  </si>
+  <si>
     <t>7.3 Branches mortes</t>
   </si>
   <si>
     <t>Le repo git ne contient pas de branches mortes (stale branches).</t>
+  </si>
+  <si>
+    <t>Attention, vous avez des vieilles branches</t>
   </si>
   <si>
     <t>7.4 Gitlab</t>
@@ -434,6 +616,9 @@
 des commentaires sont ajoutés sur les Merge Requests pour documenter les demandes de changement lors du feedback, 
 les Merge Requests sont approuvé par au moins un membre de l'équipe avant la fusion
 les issues sont mises à jour, etc.</t>
+  </si>
+  <si>
+    <t>-2 Vous n'avez (presque) pas utiliser les merge requests</t>
   </si>
   <si>
     <t>7.5 Fichiers</t>
@@ -561,6 +746,10 @@
     <t>2.1 Mode multijoueur</t>
   </si>
   <si>
+    <t>-1 Bug avec le nombre de lettre dans la réserve.
+-1 le scrore du joeur adverse n'est pas mis à jour.</t>
+  </si>
+  <si>
     <t>2.2 Clavarder</t>
   </si>
   <si>
@@ -570,24 +759,122 @@
     <t>2.4 Paramètres de partie (minuterie et mode aléatoire)</t>
   </si>
   <si>
+    <t>-0.5 le timer se décrémente parfois 2 fois plus vite.</t>
+  </si>
+  <si>
     <t>2.5 Initialisation d'une nouvelle partie (mode multijoueur)</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Paramètres de partie: Oui
+2. Changement multijoueur -&gt; solo
+-0 pas une conversion
+3. Salle d'attente pour la personne qui a créé la partie: Oui
+4. Possible de rejoindre une salle d'attente: Oui
+5. Retirer la partie de l'affichage lorsqu'elle commence: Oui
+6. Retirer la partie de l'affichage si j'annule: Oui
+---TESTS---
+Client
+- FormComponent
+- WaitingAreaComponent
+- GameListService
+Serveur
+- GameListManagerService</t>
+  </si>
+  <si>
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Placer des lettres: Oui
+2. Sélection de la case vide: Oui
+3. Choisir une lettre avec le clavier: 
+-0 La lettre blanche doit s'affichée comme la lettre désirée sur le plateau de jeu
+4. Retirer une lettre: Oui
+5. Confirmer un placement: Oui
+6. Annuler un placement: Oui
+7. Affichage dans la boite de communication: Oui
+---TESTS---
+Client: 
+- MouseWordPlacerService
+- PlaceService
+- SoloGameService.place
+Serveur: Oui</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Sélection bouton droit: Oui
+2. Annuler la sélection lors du changement de récepteur: Oui
+3. Affichage du bouton échanger: Oui
+4. Affichage du bouton annuler: Oui
+5. Piger dans la réserve: Oui
+6. Affichage dans la boite de communucation: Oui
+---TESTS---
+Client: 
+- ExchangeService
+- ExchangeCommand
+- CommandInvokerService.executeCommand(command as ExchangeCmd)
+- GameService.exchangeLetters
+Server: 
+- SocketManagerService.socket.on('exchange letters')</t>
+  </si>
+  <si>
     <t>2.8 Abandonner une partie</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Bouton abandonner: Oui
+2. Abandonner à tout moment: Oui
+3. Message de confirmation: Oui
+4. Redirection à la page d'accueil: Oui
+5. Annuler l'abandon: Oui
+6. Abandonner déclare l'adversaire gagnant: Oui
+7. Fermeture du site web: Oui
+---TESTS---
+Client: 
+- SidebarComponent.quitGame, EndGamePopupComponent
+Server: 
+- SocketManagerService.socket.on('leaveRoom'), leaveRoom()</t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Manipulation en tout temps avec bouton gauche: Oui
+2. Manipulation: Oui
+3. Un seul type de sélection: Oui
+4. Annuler si une touche ne représente pas une lettre du chevalet: Oui
+---TESTS---
+Client: 
+- RackComponent.onLeftClick .selectedLetterPosition .onKeyDown
+- ManipulationRackService.handleSelection() .switchLeft() .switchRight() .selectByLetter()
+- RackService
+Server: N/A</t>
+  </si>
+  <si>
     <t>2.10 Commande réserve</t>
   </si>
   <si>
+    <t>---FONCTIONNALITÉS---
+1. Commande réserve: Oui
+2. Affichage de la lettre blanche: Oui
+3. Respect du format: Oui
+4. Affichage seulement pour le joueur ayant envoyé la commande: Oui
+5. Seulement accessible si débogage: Oui
+---TESTS---
+Client: 
+- TextEntryService.handleInput() .createCommand()
+- commandInvokerService.executeCommand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR - commentaires UI/UX
+- changer le fond des lettres placées sur le plateau de jeu pour que ce soit plus facile à distinguer </t>
+  </si>
+  <si>
     <t>Ne build pas</t>
   </si>
   <si>
@@ -597,18 +884,66 @@
     <t>3.1 Meilleurs scores</t>
   </si>
   <si>
+    <t>-1 Bogues dans l'affichage des scores</t>
+  </si>
+  <si>
     <t>3.2 Mode admin</t>
   </si>
   <si>
+    <t>-1 Le bouton reinitialiser ne fonctionne pas.
+-1 Les noms par defauts des joeurs virtuel peuvent être supprimer.</t>
+  </si>
+  <si>
     <t>3.3. Joueur virtuel expert</t>
   </si>
   <si>
+    <t xml:space="preserve">- Fonctionnalité -
+1. Possible de sélectionner JV expert lors de l'initialisation: Oui 2. Nom du JV choisi dans une liste de 3: Oui 3. Liste différente pour chaque mode de jeu:  Non Si je choisis le même nom que le JV, il va choisir un nom dans la liste des JV débutants, même si le mode de jeu choisi est expert. 4. Le JV à un nom différent du joueur: Oui 5. JV expert fonctionnel:  Bug lors de placement impossible: toutes les lettres qui touchent et qui sont dans le sens de la flèche disparaissent. JV plante souvent à 58 secondes. JV tente de faire une commande impossible à exécuter. 6. Le JV place, saute son tour et échange: Impossible de vérifier passer 7. Le JV choisit le placement qui rapporte le maximum de points: Non, il échange tout le temps après le 1er tour 8. Le JV échange toutes ses lettres s'il ne peut pas faire un placement: Oui 9. Le JV échange le plus de lettres possible si la réserve contient oins que 7 lettres: 10. Les points son bien calculés: Non 11. Le JV joue après 3 secondes: Oui 12. Le JV passe son tour après 20 secondes: Impossible à vérifier 13. Toutes les actions du JV sont affichées dans la boite de communication: Oui 14. Le système affiche 3 possibilités de placement lorsque l'affichage de débogage est activé seulement si le joueur fait un placement: Non 15. L'affichage des possibilités est en ordre décroissant: Non 16. Respect du format d'affichage (1er ligne:toutes les lettres XY:L, pointage à la fin, 2e ligne: tous les mots formés par ce placement): Non
+- Test -
+-- Client --
+GameInitFormComponent:81, 100-106, 214
+GameService:place
+PlaceService:50%
+VirtualPlayerService:48%
+-- Server -- </t>
+  </si>
+  <si>
     <t>3.4 Mode LOG2990 - Objectifs publics</t>
   </si>
   <si>
+    <t>- Fonctionnalité -
+1. LOG2990 en solo et multijoueur: Multijoueur impossible à vérifier
+2. 8 objectifs différents: Oui
+3. Affichage des 2 objectifs publics: Oui
+4. Sélection aléatoire des objectifs publics: Oui
+5. Les objectifs privés sont différents: Oui
+6. Seulement possible de compléter l'objectif 1 fois: Oui
+7. Bon pointage: Oui
+8. JV peut compléter un objectif: Oui
+9. Les 2 joueurs peuvent compléter l'objectif: Oui
+10. Affichage de l'objectif comme étant complété: Oui
+- Test - 
+-- Client -- N/A
+-- Server -- OK</t>
+  </si>
+  <si>
     <t>3.5 Mode LOG2990 - Objectifs privés</t>
   </si>
   <si>
+    <t>- Fonctionnalité - 
+1. LOG2990 en solo et multijoueur: Multijoueur impossible à vérifier
+2. 8 objectifs différents: Oui
+3. Affichage de 1 objectif privé:Oui
+4. Sélection aléatoire de l'objectif privé: Oui
+5. Les objectifs privés sont différents: Oui
+6. Seulement possible de compléter l'objectif 1 fois: Oui
+7. Bon pointage: Oui
+8. JV peut compléter un objectif: Oui
+9. Affichage de l'objectif aux 2 joueurs lorsque l'objectif est complété: Oui
+- Test - 
+idem public</t>
+  </si>
+  <si>
     <t>3.6 Placement aléatoire dans une partie</t>
   </si>
   <si>
@@ -622,22 +957,40 @@
   </si>
   <si>
     <t>3.10 Commande aide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fonctionnalité -
+1. !aide fonctionne: Oui
+2. Affichage seulement pour le jouer qui a fait la commande: impossible à vérifier
+- Test -
+-- Client --
+-- Server -- </t>
+  </si>
+  <si>
+    <t>Mes lettres changent pour aucune raison lorsque je passe mon tour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -761,7 +1114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +1264,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -1454,14 +1813,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1469,13 +1828,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1484,10 +1843,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,46 +1864,46 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1577,22 +1936,22 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,14 +1969,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1625,16 +1978,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,13 +1999,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,13 +2017,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,7 +2035,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1703,110 +2056,110 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1815,13 +2168,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,22 +2180,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,10 +2192,10 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1938,40 +2273,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="14" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="14" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="12" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="12" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1983,16 +2315,16 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,10 +2348,10 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,10 +2372,10 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,49 +2408,49 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="21" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="3" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="21" borderId="8" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="8" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="23" borderId="4" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2144,47 +2476,113 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="26" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2192,112 +2590,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,13 +2686,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2321,17 +2701,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2724,8 +3107,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2738,7 +3121,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="220"/>
+      <c r="A3" s="211"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +3131,7 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="201" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2759,18 +3142,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="203">
         <f>(Fonctionnalités!E20)</f>
         <v>0.45600000000000002</v>
       </c>
-      <c r="C4" s="213">
+      <c r="C4" s="204">
         <f>'Assurance Qualité'!C61</f>
         <v>0.69</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="204">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.54959999999999998</v>
       </c>
@@ -2783,51 +3166,54 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="215">
+      <c r="B5" s="206">
         <f>(Fonctionnalités!E36)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="216">
+        <v>0.84</v>
+      </c>
+      <c r="C5" s="207">
         <f>'Assurance Qualité'!F61</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="216">
-        <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D5" s="207">
+        <f>B5*0.6+C5*0.4 - 0.1*E5</f>
+        <v>0.75800000000000001</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <f t="shared" ref="G5:G7" si="0">D5*F5</f>
+        <v>18.95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="218">
+      <c r="B6" s="209">
         <f>(Fonctionnalités!E53)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="219">
+        <v>0.8175</v>
+      </c>
+      <c r="C6" s="210">
         <f>'Assurance Qualité'!I61</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75599999999999989</v>
+      </c>
+      <c r="D6" s="210">
+        <f>B6*0.6+C6*0.4 - 0.1*E6</f>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>11.858000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2836,13 +3222,15 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>0.76</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -2855,8 +3243,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2864,96 +3252,96 @@
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" style="17" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="17" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="17" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" style="17" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="1029" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="269"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="221"/>
+      <c r="B5" s="212"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="221"/>
+      <c r="E5" s="212"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="221"/>
+      <c r="H5" s="212"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="221"/>
+      <c r="K5" s="212"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="252" t="s">
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="257" t="s">
+      <c r="G6" s="266"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="258"/>
-      <c r="K6" s="259"/>
+      <c r="J6" s="271"/>
+      <c r="K6" s="272"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="247"/>
-      <c r="P6" s="247"/>
+      <c r="N6" s="259"/>
+      <c r="O6" s="260"/>
+      <c r="P6" s="260"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="249"/>
-      <c r="B7" s="261"/>
+      <c r="A7" s="262"/>
+      <c r="B7" s="274"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2983,44 +3371,44 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="220"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="239"/>
-      <c r="C8" s="234" t="s">
+      <c r="B8" s="279"/>
+      <c r="C8" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="235"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="284"/>
+      <c r="E8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="234" t="s">
+      <c r="F8" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="235"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="234" t="s">
+      <c r="G8" s="284"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="235"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="105">
-      <c r="A9" s="77" t="s">
+    <row r="9" spans="1:17" ht="75">
+      <c r="A9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="225">
+      <c r="C9" s="216">
         <f>(3-2)/3</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3030,25 +3418,35 @@
       <c r="E9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="230">
+        <f>(3-1)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G9" s="48">
         <v>3</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="237">
+        <f>(3-2.5)/3</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="J9" s="49">
         <v>3</v>
       </c>
-      <c r="K9" s="50"/>
+      <c r="K9" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="45">
       <c r="A10" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
@@ -3057,12 +3455,20 @@
         <v>2</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G10" s="33">
         <v>2</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="H10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="39">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="J10" s="34">
         <v>2</v>
       </c>
@@ -3070,14 +3476,14 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="45">
+    <row r="11" spans="1:17" ht="60">
       <c r="A11" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="231">
+        <v>28</v>
+      </c>
+      <c r="C11" s="222">
         <f>(3-2*0.5)/3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -3085,14 +3491,22 @@
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="37">
+        <f>(3-3*0.25)/3</f>
+        <v>0.75</v>
+      </c>
       <c r="G11" s="33">
         <v>3</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="H11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="39">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
       <c r="J11" s="34">
         <v>3</v>
       </c>
@@ -3102,10 +3516,10 @@
     </row>
     <row r="12" spans="1:17" ht="135">
       <c r="A12" s="21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" s="35">
         <f>(2-8*0.25)/2</f>
@@ -3115,14 +3529,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="37">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
       <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="H12" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="39">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="J12" s="34">
         <v>2</v>
       </c>
@@ -3130,14 +3552,14 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="135">
+    <row r="13" spans="1:17" ht="105">
       <c r="A13" s="21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="35">
+        <v>36</v>
+      </c>
+      <c r="C13" s="222">
         <f>(4-7*0.5)/4</f>
         <v>0.125</v>
       </c>
@@ -3145,114 +3567,131 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="F13" s="225">
+        <f>(4-1*0.25)/4</f>
+        <v>0.9375</v>
+      </c>
       <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="39">
+        <f>(4-2*0.2)/4</f>
+        <v>0.9</v>
+      </c>
       <c r="J13" s="34">
         <v>4</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:17" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="237"/>
-      <c r="C14" s="86">
+    <row r="14" spans="1:17" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A14" s="275" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="276"/>
+      <c r="C14" s="84">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>5.5</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="85">
         <f>SUM(D9:D13)</f>
         <v>14</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89">
+      <c r="E14" s="86"/>
+      <c r="F14" s="87">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="90">
+        <v>11</v>
+      </c>
+      <c r="G14" s="88">
         <f>SUM(G9:G13)</f>
         <v>14</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92">
+      <c r="H14" s="89"/>
+      <c r="I14" s="90">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="93">
+        <v>11.1</v>
+      </c>
+      <c r="J14" s="91">
         <f>SUM(J9:J13)</f>
         <v>14</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="244"/>
-      <c r="C15" s="234" t="s">
+      <c r="A15" s="280" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="281"/>
+      <c r="C15" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="234" t="s">
+      <c r="D15" s="284"/>
+      <c r="E15" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="235"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="234" t="s">
+      <c r="G15" s="284"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="235"/>
-      <c r="K15" s="59"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="45">
-      <c r="A16" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="61">
-        <v>1</v>
-      </c>
-      <c r="D16" s="62">
+      <c r="A16" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="59">
+        <v>1</v>
+      </c>
+      <c r="D16" s="60">
         <v>2</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68">
+      <c r="E16" s="61"/>
+      <c r="F16" s="65">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="66">
         <v>2</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74">
+      <c r="H16" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="71">
+        <v>1</v>
+      </c>
+      <c r="J16" s="72">
         <v>2</v>
       </c>
-      <c r="K16" s="75"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="30">
+    <row r="17" spans="1:13" ht="60">
       <c r="A17" s="21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C17" s="45">
         <v>1</v>
@@ -3260,26 +3699,36 @@
       <c r="D17" s="41">
         <v>3</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="235">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="76"/>
+      <c r="H17" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="74">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J17" s="44">
         <v>3</v>
       </c>
-      <c r="K17" s="46"/>
+      <c r="K17" s="46" t="s">
+        <v>49</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3287,13 +3736,17 @@
       <c r="D18" s="41">
         <v>3</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="70"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="68">
+        <v>1</v>
+      </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="76"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="74">
+        <v>1</v>
+      </c>
       <c r="J18" s="44">
         <v>3</v>
       </c>
@@ -3303,10 +3756,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3314,13 +3767,17 @@
       <c r="D19" s="41">
         <v>3</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="70"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="68">
+        <v>1</v>
+      </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="76"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="74">
+        <v>1</v>
+      </c>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3330,10 +3787,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3341,13 +3798,20 @@
       <c r="D20" s="41">
         <v>2</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="70"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="68">
+        <f>1.5/2</f>
+        <v>0.75</v>
+      </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="76"/>
+      <c r="H20" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="74">
+        <v>1</v>
+      </c>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3355,102 +3819,108 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="245" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="97">
+    <row r="21" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A21" s="282" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="278"/>
+      <c r="C21" s="95">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>13</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="96">
         <f>SUM(D16:D20)</f>
         <v>13</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100">
+      <c r="E21" s="97"/>
+      <c r="F21" s="98">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="101">
+        <v>11</v>
+      </c>
+      <c r="G21" s="99">
         <f>SUM(G16:G20)</f>
         <v>13</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103">
+      <c r="H21" s="100"/>
+      <c r="I21" s="101">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="104">
+        <v>11</v>
+      </c>
+      <c r="J21" s="102">
         <f>SUM(J16:J20)</f>
         <v>13</v>
       </c>
-      <c r="K21" s="105"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="238" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="234" t="s">
+      <c r="A22" s="248" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="279"/>
+      <c r="C22" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="235"/>
-      <c r="E22" s="59" t="s">
+      <c r="D22" s="284"/>
+      <c r="E22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="234" t="s">
+      <c r="F22" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="235"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="234" t="s">
+      <c r="G22" s="284"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="235"/>
-      <c r="K22" s="59"/>
+      <c r="J22" s="284"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
-      <c r="A23" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="83">
+      <c r="A23" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="226">
         <f>(2-0.25)/2</f>
         <v>0.875</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="82">
         <v>2</v>
       </c>
-      <c r="E23" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="108"/>
-      <c r="G23" s="109">
+      <c r="E23" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="106">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="107">
         <v>2</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114">
+      <c r="H23" s="108"/>
+      <c r="I23" s="111">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="112">
         <v>2</v>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="113"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="45">
-      <c r="A24" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>51</v>
+      <c r="A24" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="45">
         <f>(1-0.5)/1</f>
@@ -3459,15 +3929,21 @@
       <c r="D24" s="41">
         <v>1</v>
       </c>
-      <c r="E24" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="70"/>
+      <c r="E24" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="76"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="74">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3475,12 +3951,12 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
-      <c r="A25" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>54</v>
+    <row r="25" spans="1:13" ht="120">
+      <c r="A25" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3488,13 +3964,21 @@
       <c r="D25" s="41">
         <v>1</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="70"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="68">
+        <f>(1-0.25)/1</f>
+        <v>0.75</v>
+      </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="76"/>
+      <c r="H25" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="74">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="J25" s="44">
         <v>1</v>
       </c>
@@ -3502,99 +3986,103 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="241" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="86">
+    <row r="26" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A26" s="277" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="278"/>
+      <c r="C26" s="84">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>3.25</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="85">
         <f>SUM(D23:D25)</f>
         <v>4</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="100">
+      <c r="E26" s="86"/>
+      <c r="F26" s="98">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="101">
+        <v>3.75</v>
+      </c>
+      <c r="G26" s="99">
         <f>SUM(G23:G25)</f>
         <v>4</v>
       </c>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103">
+      <c r="H26" s="100"/>
+      <c r="I26" s="101">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="104">
+        <v>4</v>
+      </c>
+      <c r="J26" s="102">
         <f>SUM(J23:J25)</f>
         <v>4</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="238" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="234" t="s">
+      <c r="A27" s="248" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="279"/>
+      <c r="C27" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="235"/>
-      <c r="E27" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="234" t="s">
+      <c r="D27" s="284"/>
+      <c r="E27" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="235"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="234" t="s">
+      <c r="G27" s="284"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="235"/>
-      <c r="K27" s="59"/>
+      <c r="J27" s="284"/>
+      <c r="K27" s="57"/>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
-      <c r="A28" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="111">
-        <v>1</v>
-      </c>
-      <c r="D28" s="60">
+      <c r="A28" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="109">
+        <v>1</v>
+      </c>
+      <c r="D28" s="58">
         <v>2</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="65">
+      <c r="E28" s="110"/>
+      <c r="F28" s="104">
+        <v>1</v>
+      </c>
+      <c r="G28" s="63">
         <v>2</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="72">
+      <c r="H28" s="64"/>
+      <c r="I28" s="115">
+        <v>1</v>
+      </c>
+      <c r="J28" s="70">
         <v>2</v>
       </c>
-      <c r="K28" s="118"/>
+      <c r="K28" s="116"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="30">
-      <c r="A29" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>59</v>
+      <c r="A29" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3602,13 +4090,17 @@
       <c r="D29" s="41">
         <v>2</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="70"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="68">
+        <v>1</v>
+      </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
       <c r="H29" s="43"/>
-      <c r="I29" s="76"/>
+      <c r="I29" s="74">
+        <v>1</v>
+      </c>
       <c r="J29" s="44">
         <v>2</v>
       </c>
@@ -3618,10 +4110,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3629,13 +4121,17 @@
       <c r="D30" s="41">
         <v>2</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="70"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="68">
+        <v>1</v>
+      </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="74">
+        <v>1</v>
+      </c>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -3645,159 +4141,187 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="232">
+        <v>74</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="223">
         <f>2.75/3</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="D31" s="41">
         <v>3</v>
       </c>
-      <c r="E31" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="70"/>
+      <c r="E31" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="68">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="76"/>
+      <c r="H31" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="74">
+        <v>1</v>
+      </c>
       <c r="J31" s="44">
         <v>3</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="237"/>
-      <c r="C32" s="86">
+    <row r="32" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A32" s="275" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="276"/>
+      <c r="C32" s="84">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.75</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="85">
         <f>SUM(D28:D31)</f>
         <v>9</v>
       </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89">
+      <c r="E32" s="86"/>
+      <c r="F32" s="87">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="90">
+        <v>8</v>
+      </c>
+      <c r="G32" s="88">
         <f>SUM(G28:G31)</f>
         <v>9</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="103">
+      <c r="H32" s="114"/>
+      <c r="I32" s="101">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="104">
+        <v>9</v>
+      </c>
+      <c r="J32" s="102">
         <f>SUM(J28:J31)</f>
         <v>9</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="238" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="240"/>
-      <c r="C33" s="234" t="s">
+      <c r="A33" s="248" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="249"/>
+      <c r="C33" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="235"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="284"/>
+      <c r="E33" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="234" t="s">
+      <c r="F33" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="235"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="57" t="s">
+      <c r="G33" s="284"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="30">
-      <c r="A34" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="111">
+    <row r="34" spans="1:13" ht="45">
+      <c r="A34" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="109">
         <v>0</v>
       </c>
-      <c r="D34" s="60">
-        <v>1</v>
-      </c>
-      <c r="E34" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="65">
-        <v>1</v>
-      </c>
-      <c r="H34" s="107"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="72">
-        <v>1</v>
-      </c>
-      <c r="K34" s="118"/>
+      <c r="D34" s="58">
+        <v>1</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="104">
+        <v>0</v>
+      </c>
+      <c r="G34" s="63">
+        <v>1</v>
+      </c>
+      <c r="H34" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="115">
+        <f>(1-1)/1</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="70">
+        <v>1</v>
+      </c>
+      <c r="K34" s="116" t="s">
+        <v>84</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="30">
-      <c r="A35" s="55" t="s">
-        <v>69</v>
+    <row r="35" spans="1:13" ht="75">
+      <c r="A35" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="233">
+        <v>86</v>
+      </c>
+      <c r="C35" s="224">
         <f>(1-2*0.25)/1</f>
         <v>0.5</v>
       </c>
       <c r="D35" s="41">
         <v>1</v>
       </c>
-      <c r="E35" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="70"/>
+      <c r="E35" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="74">
+        <f>(1-2*0.25)/1</f>
+        <v>0.5</v>
+      </c>
       <c r="J35" s="44">
         <v>1</v>
       </c>
-      <c r="K35" s="46"/>
+      <c r="K35" s="46" t="s">
+        <v>89</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" ht="45">
+    <row r="36" spans="1:13" ht="135">
       <c r="A36" s="21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C36" s="45">
         <f>(3-3*0.5)/3</f>
@@ -3806,145 +4330,169 @@
       <c r="D36" s="41">
         <v>3</v>
       </c>
-      <c r="E36" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="70"/>
+      <c r="E36" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="68">
+        <f>(3-6*0.25)/3</f>
+        <v>0.5</v>
+      </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="76"/>
+      <c r="H36" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="74">
+        <f>(3-3*0.25)/3</f>
+        <v>0.75</v>
+      </c>
       <c r="J36" s="44">
         <v>3</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" ht="30">
+    <row r="37" spans="1:13" ht="75">
       <c r="A37" s="21" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="232">
+        <v>96</v>
+      </c>
+      <c r="C37" s="223">
         <f>(3-2*0.25)/3</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D37" s="41">
         <v>3</v>
       </c>
-      <c r="E37" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="70"/>
+      <c r="E37" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="68">
+        <f>(3-0.25*3)/3</f>
+        <v>0.75</v>
+      </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="76"/>
+      <c r="H37" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="238">
+        <f>(3-5*0.25)/3</f>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="J37" s="44">
         <v>3</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="237"/>
-      <c r="C38" s="121">
+    <row r="38" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A38" s="275" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="276"/>
+      <c r="C38" s="119">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>4.5</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="85">
         <f>SUM(D34:D37)</f>
         <v>8</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="122">
+      <c r="E38" s="86"/>
+      <c r="F38" s="120">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="90">
+        <v>4.75</v>
+      </c>
+      <c r="G38" s="88">
         <f>SUM(G34:G37)</f>
         <v>8</v>
       </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="103">
+      <c r="H38" s="89"/>
+      <c r="I38" s="101">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="104">
+        <v>4.5</v>
+      </c>
+      <c r="J38" s="102">
         <f>SUM(J34:J37)</f>
         <v>8</v>
       </c>
-      <c r="K38" s="105"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="238" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="234" t="s">
+      <c r="A39" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="279"/>
+      <c r="C39" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="235"/>
-      <c r="E39" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="234" t="s">
+      <c r="D39" s="284"/>
+      <c r="E39" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="235"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="234" t="s">
+      <c r="G39" s="284"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="235"/>
-      <c r="K39" s="59"/>
+      <c r="J39" s="284"/>
+      <c r="K39" s="57"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="45">
-      <c r="A40" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="83">
-        <v>1</v>
-      </c>
-      <c r="D40" s="84">
-        <v>1</v>
-      </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109">
-        <v>1</v>
-      </c>
-      <c r="H40" s="110"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="114">
-        <v>1</v>
-      </c>
-      <c r="K40" s="115"/>
+      <c r="A40" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="81">
+        <v>1</v>
+      </c>
+      <c r="D40" s="82">
+        <v>1</v>
+      </c>
+      <c r="E40" s="83"/>
+      <c r="F40" s="106">
+        <v>1</v>
+      </c>
+      <c r="G40" s="107">
+        <v>1</v>
+      </c>
+      <c r="H40" s="108"/>
+      <c r="I40" s="111">
+        <v>1</v>
+      </c>
+      <c r="J40" s="112">
+        <v>1</v>
+      </c>
+      <c r="K40" s="113"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="30">
       <c r="A41" s="21" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C41" s="45">
         <v>1</v>
@@ -3952,13 +4500,17 @@
       <c r="D41" s="41">
         <v>4</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="70"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="68">
+        <v>1</v>
+      </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
-      <c r="H41" s="71"/>
-      <c r="I41" s="76"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="74">
+        <v>1</v>
+      </c>
       <c r="J41" s="44">
         <v>4</v>
       </c>
@@ -3966,29 +4518,35 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="30">
+    <row r="42" spans="1:13" ht="120">
       <c r="A42" s="21" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="232">
+        <v>106</v>
+      </c>
+      <c r="C42" s="223">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D42" s="41">
         <v>3</v>
       </c>
-      <c r="E42" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="70"/>
+      <c r="E42" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="68">
+        <v>0</v>
+      </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="76"/>
+      <c r="H42" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="74">
+        <v>1</v>
+      </c>
       <c r="J42" s="44">
         <v>3</v>
       </c>
@@ -3998,10 +4556,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C43" s="45">
         <f>1.5/2</f>
@@ -4010,27 +4568,33 @@
       <c r="D43" s="41">
         <v>2</v>
       </c>
-      <c r="E43" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="70"/>
+      <c r="E43" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="68">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="76"/>
+      <c r="H43" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="74">
+        <v>1</v>
+      </c>
       <c r="J43" s="44">
         <v>2</v>
       </c>
       <c r="K43" s="46"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="150">
+    <row r="44" spans="1:13" ht="75">
       <c r="A44" s="21" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -4039,27 +4603,35 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>115</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0</v>
+      </c>
       <c r="G44" s="33">
         <v>2</v>
       </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
+      <c r="H44" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J44" s="34">
         <v>2</v>
       </c>
-      <c r="K44" s="40"/>
+      <c r="K44" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="30">
       <c r="A45" s="21" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -4068,12 +4640,19 @@
         <v>3</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="F45" s="37">
+        <f>2.5/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
+      <c r="H45" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
       <c r="J45" s="34">
         <v>3</v>
       </c>
@@ -4083,27 +4662,31 @@
     </row>
     <row r="46" spans="1:13" ht="30">
       <c r="A46" s="21" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="232">
+        <v>122</v>
+      </c>
+      <c r="C46" s="223">
         <f>2.5/3</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D46" s="41">
         <v>3</v>
       </c>
-      <c r="E46" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="70"/>
+      <c r="E46" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="68">
+        <v>1</v>
+      </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
-      <c r="H46" s="71"/>
-      <c r="I46" s="76"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="74">
+        <v>1</v>
+      </c>
       <c r="J46" s="44">
         <v>3</v>
       </c>
@@ -4113,10 +4696,10 @@
     </row>
     <row r="47" spans="1:13" ht="83.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C47" s="45">
         <v>0</v>
@@ -4124,28 +4707,38 @@
       <c r="D47" s="41">
         <v>6</v>
       </c>
-      <c r="E47" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="70"/>
+      <c r="E47" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="68">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="74">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="J47" s="44">
         <v>6</v>
       </c>
-      <c r="K47" s="46"/>
+      <c r="K47" s="46" t="s">
+        <v>128</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="123" customHeight="1">
+    <row r="48" spans="1:13" ht="136.5" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C48" s="45">
         <f>6/8</f>
@@ -4154,28 +4747,37 @@
       <c r="D48" s="41">
         <v>8</v>
       </c>
-      <c r="E48" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="70"/>
+      <c r="E48" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="68">
+        <v>0</v>
+      </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="76"/>
+      <c r="H48" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="74">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
       <c r="J48" s="44">
         <v>8</v>
       </c>
-      <c r="K48" s="46"/>
+      <c r="K48" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" ht="127.5" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C49" s="45">
         <v>0</v>
@@ -4183,28 +4785,36 @@
       <c r="D49" s="41">
         <v>6</v>
       </c>
-      <c r="E49" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="70"/>
+      <c r="E49" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="68">
+        <v>0</v>
+      </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="76"/>
+      <c r="H49" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="74">
+        <v>0</v>
+      </c>
       <c r="J49" s="44">
         <v>6</v>
       </c>
-      <c r="K49" s="46"/>
+      <c r="K49" s="46" t="s">
+        <v>138</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4212,13 +4822,17 @@
       <c r="D50" s="41">
         <v>3</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="70"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="68">
+        <v>1</v>
+      </c>
       <c r="G50" s="42">
         <v>3</v>
       </c>
-      <c r="H50" s="71"/>
-      <c r="I50" s="76"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="74">
+        <v>1</v>
+      </c>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4226,100 +4840,108 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="237"/>
-      <c r="C51" s="131">
+    <row r="51" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A51" s="275" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="276"/>
+      <c r="C51" s="123">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>23</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D51" s="96">
         <f>SUM(D40:D50)</f>
         <v>41</v>
       </c>
-      <c r="E51" s="99"/>
-      <c r="F51" s="122">
+      <c r="E51" s="97"/>
+      <c r="F51" s="120">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="90">
+        <v>16</v>
+      </c>
+      <c r="G51" s="88">
         <f>SUM(G40:G50)</f>
         <v>41</v>
       </c>
-      <c r="H51" s="91"/>
-      <c r="I51" s="92">
+      <c r="H51" s="89"/>
+      <c r="I51" s="90">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="93">
+        <v>26</v>
+      </c>
+      <c r="J51" s="91">
         <f>SUM(J40:J50)</f>
         <v>41</v>
       </c>
-      <c r="K51" s="94"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="238" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="240"/>
-      <c r="C52" s="234" t="s">
+      <c r="A52" s="248" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="249"/>
+      <c r="C52" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="235"/>
-      <c r="E52" s="59" t="s">
+      <c r="D52" s="284"/>
+      <c r="E52" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="234" t="s">
+      <c r="F52" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="235"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="234" t="s">
+      <c r="G52" s="284"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="235"/>
-      <c r="K52" s="59"/>
+      <c r="J52" s="284"/>
+      <c r="K52" s="57"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
-      <c r="A53" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="111">
+      <c r="A53" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="109">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="58">
         <v>2</v>
       </c>
-      <c r="E53" s="112"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="109">
+      <c r="E53" s="110"/>
+      <c r="F53" s="106">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="107">
         <v>2</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127">
+      <c r="H53" s="108"/>
+      <c r="I53" s="111">
+        <f>(2-1)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="112">
         <v>2</v>
       </c>
-      <c r="K53" s="128"/>
+      <c r="K53" s="113" t="s">
+        <v>144</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C54" s="45">
         <v>1</v>
@@ -4327,26 +4949,34 @@
       <c r="D54" s="41">
         <v>2</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="70"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="68">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
-      <c r="H54" s="71"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="123">
+      <c r="H54" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="74">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="44">
         <v>2</v>
       </c>
-      <c r="K54" s="130"/>
+      <c r="K54" s="46"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="55" t="s">
-        <v>113</v>
+      <c r="A55" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C55" s="45">
         <v>1</v>
@@ -4354,26 +4984,34 @@
       <c r="D55" s="41">
         <v>1</v>
       </c>
-      <c r="E55" s="64"/>
-      <c r="F55" s="70"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="68">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
-      <c r="H55" s="71"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="123">
-        <v>1</v>
-      </c>
-      <c r="K55" s="130"/>
+      <c r="H55" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" s="74">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="44">
+        <v>1</v>
+      </c>
+      <c r="K55" s="46"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="105">
-      <c r="A56" s="55" t="s">
-        <v>115</v>
+      <c r="A56" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C56" s="45">
         <v>1</v>
@@ -4381,26 +5019,34 @@
       <c r="D56" s="41">
         <v>4</v>
       </c>
-      <c r="E56" s="64"/>
-      <c r="F56" s="70"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="68">
+        <f>(4-2)/4</f>
+        <v>0.5</v>
+      </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
-      <c r="H56" s="71"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="123">
+      <c r="H56" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" s="74">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+      <c r="J56" s="44">
         <v>4</v>
       </c>
-      <c r="K56" s="130"/>
+      <c r="K56" s="46"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4408,169 +5054,141 @@
       <c r="D57" s="41">
         <v>2</v>
       </c>
-      <c r="E57" s="64"/>
-      <c r="F57" s="70"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="68">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
-      <c r="H57" s="71"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="123">
+      <c r="H57" s="69"/>
+      <c r="I57" s="74">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="44">
         <v>2</v>
       </c>
-      <c r="K57" s="130"/>
+      <c r="K57" s="46"/>
       <c r="L57" s="7"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="236" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="237"/>
-      <c r="C58" s="97">
+    <row r="58" spans="1:13" s="94" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A58" s="275" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="276"/>
+      <c r="C58" s="95">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>11</v>
       </c>
-      <c r="D58" s="98">
+      <c r="D58" s="96">
         <f>SUM(D53:D57)</f>
         <v>11</v>
       </c>
-      <c r="E58" s="99"/>
-      <c r="F58" s="100">
+      <c r="E58" s="97"/>
+      <c r="F58" s="98">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="101">
+        <v>9</v>
+      </c>
+      <c r="G58" s="99">
         <f>SUM(G53:G57)</f>
         <v>11</v>
       </c>
-      <c r="H58" s="102"/>
-      <c r="I58" s="92">
+      <c r="H58" s="100"/>
+      <c r="I58" s="90">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="93">
+        <v>10</v>
+      </c>
+      <c r="J58" s="91">
         <f>SUM(J53:J57)</f>
         <v>11</v>
       </c>
-      <c r="K58" s="94"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="262" t="s">
+      <c r="A59" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="263"/>
-      <c r="C59" s="263"/>
-      <c r="D59" s="263"/>
-      <c r="E59" s="263"/>
-      <c r="F59" s="263"/>
-      <c r="G59" s="263"/>
-      <c r="H59" s="263"/>
-      <c r="I59" s="263"/>
-      <c r="J59" s="263"/>
-      <c r="K59" s="264"/>
+      <c r="B59" s="242"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="242"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="242"/>
+      <c r="G59" s="242"/>
+      <c r="H59" s="242"/>
+      <c r="I59" s="242"/>
+      <c r="J59" s="242"/>
+      <c r="K59" s="243"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="265" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="266"/>
-      <c r="C60" s="132">
+      <c r="A60" s="244" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="245"/>
+      <c r="C60" s="124">
         <f t="shared" ref="C60:J60" si="0">C14+C21+C26+C32+C38+C51+C58</f>
         <v>69</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="60">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E60" s="63"/>
-      <c r="F60" s="133">
+      <c r="E60" s="61"/>
+      <c r="F60" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="68">
+        <v>63.5</v>
+      </c>
+      <c r="G60" s="66">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H60" s="69"/>
-      <c r="I60" s="134">
+      <c r="H60" s="67"/>
+      <c r="I60" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="124">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J60" s="121">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K60" s="125"/>
+      <c r="K60" s="122"/>
       <c r="L60" s="7"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="96" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="267" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="268"/>
-      <c r="C61" s="269">
+    <row r="61" spans="1:13" s="94" customFormat="1" ht="15.75">
+      <c r="A61" s="246" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="247"/>
+      <c r="C61" s="250">
         <f>C60/D60</f>
         <v>0.69</v>
       </c>
-      <c r="D61" s="270"/>
-      <c r="E61" s="271"/>
-      <c r="F61" s="272">
+      <c r="D61" s="251"/>
+      <c r="E61" s="252"/>
+      <c r="F61" s="253">
         <f>F60/G60</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="273"/>
-      <c r="H61" s="274"/>
-      <c r="I61" s="275">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G61" s="254"/>
+      <c r="H61" s="255"/>
+      <c r="I61" s="256">
         <f>I60/J60</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="276"/>
-      <c r="K61" s="277"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
+        <v>0.75599999999999989</v>
+      </c>
+      <c r="J61" s="257"/>
+      <c r="K61" s="258"/>
+      <c r="L61" s="127"/>
+      <c r="M61" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4585,6 +5203,40 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4606,1010 +5258,1088 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="137" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="137"/>
-    <col min="5" max="5" width="11" style="137" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="137" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="137" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="137"/>
+    <col min="1" max="1" width="50.5703125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="129"/>
+    <col min="5" max="5" width="11" style="129" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="129" customWidth="1"/>
+    <col min="7" max="7" width="129.7109375" style="129" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="129"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="136" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
+      <c r="A4" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="288"/>
+      <c r="B6" s="294"/>
+      <c r="C6" s="294"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="295"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="160" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="289"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
+      <c r="A7" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="296"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="297"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="209" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="188" t="s">
+      <c r="A8" s="200" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="188" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="188" t="s">
+      <c r="C8" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="188" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="188" t="s">
+      <c r="E8" s="179" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="189" t="s">
+      <c r="G8" s="180" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="147" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="140">
-        <v>1</v>
-      </c>
-      <c r="C9" s="140">
-        <v>1</v>
-      </c>
-      <c r="D9" s="140">
+      <c r="A9" s="139" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="132">
+        <v>1</v>
+      </c>
+      <c r="C9" s="132">
+        <v>1</v>
+      </c>
+      <c r="D9" s="132">
         <v>5</v>
       </c>
-      <c r="E9" s="140">
+      <c r="E9" s="132">
         <f t="shared" ref="E9:E19" si="0">B9*C9*D9</f>
         <v>5</v>
       </c>
-      <c r="F9" s="223" t="s">
+      <c r="F9" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="148"/>
+      <c r="G9" s="140"/>
     </row>
     <row r="10" spans="1:7" ht="75">
-      <c r="A10" s="190" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="191">
+      <c r="A10" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="182">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="C10" s="191">
-        <v>1</v>
-      </c>
-      <c r="D10" s="191">
+      <c r="C10" s="182">
+        <v>1</v>
+      </c>
+      <c r="D10" s="182">
         <v>5</v>
       </c>
-      <c r="E10" s="191">
+      <c r="E10" s="182">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10" s="224" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="229" t="s">
-        <v>128</v>
+      <c r="F10" s="234" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="220" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="210">
-      <c r="A11" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="227">
+      <c r="A11" s="139" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="218">
         <f>3/18</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C11" s="140">
+      <c r="C11" s="132">
         <v>0.25</v>
       </c>
-      <c r="D11" s="140">
+      <c r="D11" s="132">
         <v>18</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="132">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F11" s="223" t="s">
+      <c r="F11" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="226" t="s">
-        <v>130</v>
+      <c r="G11" s="217" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="190" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="191">
+      <c r="A12" s="181" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="182">
         <v>0.3</v>
       </c>
-      <c r="C12" s="191">
+      <c r="C12" s="182">
         <v>0.75</v>
       </c>
-      <c r="D12" s="191">
+      <c r="D12" s="182">
         <v>16</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="182">
         <f>B12*C12*D12</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="F12" s="224" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="229" t="s">
-        <v>132</v>
+      <c r="F12" s="215" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="220" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="120">
-      <c r="A13" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="140">
+      <c r="A13" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="132">
         <f>(10-1.75)/10</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="C13" s="140">
+      <c r="C13" s="132">
         <v>0.5</v>
       </c>
-      <c r="D13" s="140">
+      <c r="D13" s="132">
         <v>10</v>
       </c>
-      <c r="E13" s="140">
+      <c r="E13" s="132">
         <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
-      <c r="F13" s="223" t="s">
+      <c r="F13" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="226" t="s">
-        <v>134</v>
+      <c r="G13" s="217" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="140">
+      <c r="A14" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="132">
         <f>7.5/8</f>
         <v>0.9375</v>
       </c>
-      <c r="C14" s="140">
+      <c r="C14" s="132">
         <v>0.75</v>
       </c>
-      <c r="D14" s="140">
+      <c r="D14" s="132">
         <v>8</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="132">
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="F14" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="148" t="s">
-        <v>136</v>
+      <c r="F14" s="214" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="140" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75">
-      <c r="A15" s="190" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="228">
+      <c r="A15" s="181" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="219">
         <f>8/12</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C15" s="191">
+      <c r="C15" s="182">
         <v>0.25</v>
       </c>
-      <c r="D15" s="191">
+      <c r="D15" s="182">
         <v>12</v>
       </c>
-      <c r="E15" s="191">
+      <c r="E15" s="182">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="230" t="s">
+      <c r="F15" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="229" t="s">
-        <v>138</v>
+      <c r="G15" s="220" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="147" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="140">
+      <c r="A16" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="132">
         <f>9/10</f>
         <v>0.9</v>
       </c>
-      <c r="C16" s="140">
-        <v>1</v>
-      </c>
-      <c r="D16" s="140">
+      <c r="C16" s="132">
+        <v>1</v>
+      </c>
+      <c r="D16" s="132">
         <v>10</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="132">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F16" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="148" t="s">
-        <v>140</v>
+      <c r="F16" s="214" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="140" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="190" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="191">
+      <c r="A17" s="181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="182">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="C17" s="191">
-        <v>1</v>
-      </c>
-      <c r="D17" s="191">
+      <c r="C17" s="182">
+        <v>1</v>
+      </c>
+      <c r="D17" s="182">
         <v>4</v>
       </c>
-      <c r="E17" s="191">
+      <c r="E17" s="182">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F17" s="224" t="s">
+      <c r="F17" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="192"/>
+      <c r="G17" s="183"/>
     </row>
     <row r="18" spans="1:7" ht="45">
-      <c r="A18" s="147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="140">
+      <c r="A18" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="132">
         <f>4/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" s="140">
-        <v>1</v>
-      </c>
-      <c r="D18" s="140">
+      <c r="C18" s="132">
+        <v>1</v>
+      </c>
+      <c r="D18" s="132">
         <v>6</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="132">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="226" t="s">
-        <v>143</v>
+      <c r="F18" s="214" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="217" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="228">
-        <v>1</v>
-      </c>
-      <c r="C19" s="191">
+      <c r="A19" s="181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="219">
+        <v>1</v>
+      </c>
+      <c r="C19" s="182">
         <v>0.75</v>
       </c>
-      <c r="D19" s="191">
+      <c r="D19" s="182">
         <v>6</v>
       </c>
-      <c r="E19" s="191">
+      <c r="E19" s="182">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F19" s="224" t="s">
+      <c r="F19" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="229" t="s">
-        <v>145</v>
+      <c r="G19" s="220" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="170" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="291"/>
-      <c r="C20" s="291"/>
-      <c r="D20" s="222">
+      <c r="A20" s="161" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="298"/>
+      <c r="C20" s="298"/>
+      <c r="D20" s="213">
         <f>SUM(D9:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="171">
+      <c r="E20" s="162">
         <f>SUM(E9:E19)/D20 + E22*D22 + E21*D21</f>
         <v>0.45600000000000002</v>
       </c>
-      <c r="F20" s="173"/>
-      <c r="G20" s="172"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="163"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="190" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194">
+      <c r="A21" s="181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185">
         <v>-0.15</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="195"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="186"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151">
+      <c r="A22" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143">
         <v>-0.2</v>
       </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="152"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="144"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="292" t="s">
+      <c r="A23" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="293"/>
-      <c r="C23" s="293"/>
-      <c r="D23" s="293"/>
-      <c r="E23" s="293"/>
-      <c r="F23" s="293"/>
-      <c r="G23" s="294"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="300"/>
+      <c r="F23" s="300"/>
+      <c r="G23" s="301"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="159" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="279"/>
-      <c r="C24" s="279"/>
-      <c r="D24" s="279"/>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="280"/>
+      <c r="A24" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="286"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="287"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="208" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="196" t="s">
+      <c r="A25" s="199" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="196" t="s">
+      <c r="C25" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="196" t="s">
+      <c r="E25" s="187" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="197" t="s">
+      <c r="G25" s="188" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="141">
-        <v>0</v>
-      </c>
-      <c r="C26" s="141">
-        <v>0</v>
-      </c>
-      <c r="D26" s="141">
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="145" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="236">
+        <f>22/24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C26" s="133">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="133">
         <v>24</v>
       </c>
-      <c r="E26" s="141">
+      <c r="E26" s="133">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="141"/>
-      <c r="G26" s="161"/>
+        <v>16.5</v>
+      </c>
+      <c r="F26" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="227" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="198" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="199">
-        <v>0</v>
-      </c>
-      <c r="C27" s="199">
-        <v>0</v>
-      </c>
-      <c r="D27" s="199">
+      <c r="A27" s="189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="190">
+        <v>1</v>
+      </c>
+      <c r="C27" s="190">
+        <v>1</v>
+      </c>
+      <c r="D27" s="190">
         <v>8</v>
       </c>
-      <c r="E27" s="199">
+      <c r="E27" s="190">
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="199"/>
-      <c r="G27" s="200"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="190" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="191"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="141">
-        <v>0</v>
-      </c>
-      <c r="C28" s="141">
-        <v>0</v>
-      </c>
-      <c r="D28" s="141">
+      <c r="A28" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="133">
+        <v>1</v>
+      </c>
+      <c r="C28" s="133">
+        <v>1</v>
+      </c>
+      <c r="D28" s="133">
         <v>10</v>
       </c>
-      <c r="E28" s="141">
+      <c r="E28" s="133">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="141"/>
-      <c r="G28" s="161"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="198" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="199">
-        <v>0</v>
-      </c>
-      <c r="C29" s="199">
-        <v>0</v>
-      </c>
-      <c r="D29" s="199">
+        <v>10</v>
+      </c>
+      <c r="F28" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="153"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="190">
+        <v>1</v>
+      </c>
+      <c r="C29" s="190">
+        <v>1</v>
+      </c>
+      <c r="D29" s="190">
         <v>8</v>
       </c>
-      <c r="E29" s="199">
+      <c r="E29" s="190">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="199"/>
-      <c r="G29" s="200"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="141">
-        <v>0</v>
-      </c>
-      <c r="C30" s="141">
-        <v>0</v>
-      </c>
-      <c r="D30" s="141">
+        <v>8</v>
+      </c>
+      <c r="F29" s="190" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="225">
+      <c r="A30" s="145" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="133">
+        <f>10/10</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="133">
+        <v>1</v>
+      </c>
+      <c r="D30" s="133">
         <v>10</v>
       </c>
-      <c r="E30" s="141">
+      <c r="E30" s="133">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="141"/>
-      <c r="G30" s="161"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="198" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="199">
-        <v>0</v>
-      </c>
-      <c r="C31" s="199">
-        <v>0</v>
-      </c>
-      <c r="D31" s="199">
+        <v>10</v>
+      </c>
+      <c r="F30" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="227" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="240">
+      <c r="A31" s="189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="190">
+        <f>12/12</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="190">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="190">
         <v>12</v>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="190">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="199"/>
-      <c r="G31" s="200"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="141">
-        <v>0</v>
-      </c>
-      <c r="C32" s="141">
-        <v>0</v>
-      </c>
-      <c r="D32" s="141">
+        <v>9</v>
+      </c>
+      <c r="F31" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="231" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="255">
+      <c r="A32" s="145" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="133">
+        <v>1</v>
+      </c>
+      <c r="C32" s="133">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="133">
         <v>10</v>
       </c>
-      <c r="E32" s="141">
+      <c r="E32" s="133">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="141"/>
-      <c r="G32" s="161"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="198" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="199">
-        <v>0</v>
-      </c>
-      <c r="C33" s="199">
-        <v>0</v>
-      </c>
-      <c r="D33" s="199">
+        <v>7.5</v>
+      </c>
+      <c r="F32" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="227" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="225">
+      <c r="A33" s="189" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="190">
+        <v>1</v>
+      </c>
+      <c r="C33" s="190">
+        <v>1</v>
+      </c>
+      <c r="D33" s="190">
         <v>4</v>
       </c>
-      <c r="E33" s="199">
+      <c r="E33" s="190">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="199"/>
-      <c r="G33" s="200"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="153" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="141">
-        <v>0</v>
-      </c>
-      <c r="C34" s="141">
-        <v>0</v>
-      </c>
-      <c r="D34" s="141">
+        <v>4</v>
+      </c>
+      <c r="F33" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="231" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="210">
+      <c r="A34" s="145" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="133">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="133">
+        <v>1</v>
+      </c>
+      <c r="D34" s="133">
         <v>10</v>
       </c>
-      <c r="E34" s="141">
+      <c r="E34" s="133">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="141"/>
-      <c r="G34" s="161"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="141">
-        <v>0</v>
-      </c>
-      <c r="C35" s="141">
-        <v>0</v>
-      </c>
-      <c r="D35" s="141">
+        <v>10</v>
+      </c>
+      <c r="F34" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="232" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="165">
+      <c r="A35" s="228" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="229">
+        <v>1</v>
+      </c>
+      <c r="C35" s="229">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="229">
         <v>4</v>
       </c>
-      <c r="E35" s="141">
+      <c r="E35" s="229">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="141"/>
-      <c r="G35" s="161"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167">
+        <v>1</v>
+      </c>
+      <c r="F35" s="229" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="233" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36" s="158" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159">
         <f>SUM(D26:D35)</f>
         <v>100</v>
       </c>
-      <c r="E36" s="168">
+      <c r="E36" s="160">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="168"/>
-      <c r="G36" s="169"/>
+        <v>0.84</v>
+      </c>
+      <c r="F36" s="160"/>
+      <c r="G36" s="302" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="198" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="202">
+      <c r="A37" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="192"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="193">
         <v>-0.15</v>
       </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="203"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="194"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="153" t="s">
+      <c r="A38" s="145" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="135">
+        <v>-0.2</v>
+      </c>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="146"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A39" s="195" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="197">
+        <v>-0.05</v>
+      </c>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="198"/>
+    </row>
+    <row r="40" spans="1:7" ht="24" thickBot="1">
+      <c r="A40" s="288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="289"/>
+      <c r="C40" s="289"/>
+      <c r="D40" s="289"/>
+      <c r="E40" s="289"/>
+      <c r="F40" s="289"/>
+      <c r="G40" s="290"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="150" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="143">
-        <v>-0.2</v>
-      </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="154"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="204" t="s">
+      <c r="B41" s="291"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="292"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="206">
-        <v>-0.05</v>
-      </c>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="207"/>
-    </row>
-    <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="281" t="s">
+      <c r="B42" s="169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="169" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="169" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="147" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="136">
+        <f>13/14</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C43" s="136">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="136">
+        <v>14</v>
+      </c>
+      <c r="E43" s="136">
+        <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
+        <v>9.75</v>
+      </c>
+      <c r="F43" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="166">
+        <f>8/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="C44" s="166">
+        <v>1</v>
+      </c>
+      <c r="D44" s="166">
+        <v>10</v>
+      </c>
+      <c r="E44" s="166">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B40" s="282"/>
-      <c r="C40" s="282"/>
-      <c r="D40" s="282"/>
-      <c r="E40" s="282"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="283"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="158" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="284"/>
-      <c r="C41" s="284"/>
-      <c r="D41" s="284"/>
-      <c r="E41" s="284"/>
-      <c r="F41" s="284"/>
-      <c r="G41" s="285"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="177" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="178" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="178" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="178" t="s">
+      <c r="F44" s="166" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="240" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="282.75" customHeight="1">
+      <c r="A45" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="136">
+        <v>12</v>
+      </c>
+      <c r="E45" s="136">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F45" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="239" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="210">
+      <c r="A46" s="165" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="166">
+        <v>1</v>
+      </c>
+      <c r="C46" s="166">
+        <v>1</v>
+      </c>
+      <c r="D46" s="166">
+        <v>18</v>
+      </c>
+      <c r="E46" s="166">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F46" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="240" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="180">
+      <c r="A47" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="136">
+        <v>1</v>
+      </c>
+      <c r="C47" s="136">
+        <v>1</v>
+      </c>
+      <c r="D47" s="136">
+        <v>16</v>
+      </c>
+      <c r="E47" s="136">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F47" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="239" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="166">
+        <v>1</v>
+      </c>
+      <c r="C48" s="166">
+        <v>1</v>
+      </c>
+      <c r="D48" s="166">
+        <v>6</v>
+      </c>
+      <c r="E48" s="166">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F48" s="166" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="167"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="136">
+        <v>1</v>
+      </c>
+      <c r="C49" s="136">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="136">
+        <v>6</v>
+      </c>
+      <c r="E49" s="136">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F49" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="148"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="165" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="166">
+        <v>1</v>
+      </c>
+      <c r="C50" s="166">
+        <v>1</v>
+      </c>
+      <c r="D50" s="166">
+        <v>6</v>
+      </c>
+      <c r="E50" s="166">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="166" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="167"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="136">
+        <v>1</v>
+      </c>
+      <c r="C51" s="136">
+        <v>1</v>
+      </c>
+      <c r="D51" s="136">
+        <v>8</v>
+      </c>
+      <c r="E51" s="136">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F51" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="148"/>
+    </row>
+    <row r="52" spans="1:7" ht="90">
+      <c r="A52" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="166">
+        <v>1</v>
+      </c>
+      <c r="C52" s="166">
+        <v>1</v>
+      </c>
+      <c r="D52" s="166">
         <v>4</v>
       </c>
-      <c r="E42" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="180" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="144">
-        <v>0</v>
-      </c>
-      <c r="C43" s="144">
-        <v>0</v>
-      </c>
-      <c r="D43" s="144">
-        <v>14</v>
-      </c>
-      <c r="E43" s="144">
-        <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="144"/>
-      <c r="G43" s="156"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="174" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="175">
-        <v>0</v>
-      </c>
-      <c r="C44" s="175">
-        <v>0</v>
-      </c>
-      <c r="D44" s="175">
-        <v>10</v>
-      </c>
-      <c r="E44" s="175">
+      <c r="E52" s="166">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="175"/>
-      <c r="G44" s="176"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="144">
-        <v>0</v>
-      </c>
-      <c r="C45" s="144">
-        <v>0</v>
-      </c>
-      <c r="D45" s="144">
-        <v>12</v>
-      </c>
-      <c r="E45" s="144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="144"/>
-      <c r="G45" s="156"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="174" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="175">
-        <v>0</v>
-      </c>
-      <c r="C46" s="175">
-        <v>0</v>
-      </c>
-      <c r="D46" s="175">
+        <v>4</v>
+      </c>
+      <c r="F52" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="175"/>
-      <c r="G46" s="176"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="155" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="144">
-        <v>0</v>
-      </c>
-      <c r="C47" s="144">
-        <v>0</v>
-      </c>
-      <c r="D47" s="144">
-        <v>16</v>
-      </c>
-      <c r="E47" s="144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="144"/>
-      <c r="G47" s="156"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="175">
-        <v>0</v>
-      </c>
-      <c r="C48" s="175">
-        <v>0</v>
-      </c>
-      <c r="D48" s="175">
-        <v>6</v>
-      </c>
-      <c r="E48" s="175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="175"/>
-      <c r="G48" s="176"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="144">
-        <v>0</v>
-      </c>
-      <c r="C49" s="144">
-        <v>0</v>
-      </c>
-      <c r="D49" s="144">
-        <v>6</v>
-      </c>
-      <c r="E49" s="144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="144"/>
-      <c r="G49" s="156"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="174" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" s="175">
-        <v>0</v>
-      </c>
-      <c r="C50" s="175">
-        <v>0</v>
-      </c>
-      <c r="D50" s="175">
-        <v>6</v>
-      </c>
-      <c r="E50" s="175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="175"/>
-      <c r="G50" s="176"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="144">
-        <v>0</v>
-      </c>
-      <c r="C51" s="144">
-        <v>0</v>
-      </c>
-      <c r="D51" s="144">
-        <v>8</v>
-      </c>
-      <c r="E51" s="144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="144"/>
-      <c r="G51" s="156"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="174" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="175">
-        <v>0</v>
-      </c>
-      <c r="C52" s="175">
-        <v>0</v>
-      </c>
-      <c r="D52" s="175">
-        <v>4</v>
-      </c>
-      <c r="E52" s="175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="175"/>
-      <c r="G52" s="176"/>
+      <c r="G52" s="240" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="162" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163">
+      <c r="A53" s="154" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="155"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155">
         <f>SUM(D43:D52)</f>
         <v>100</v>
       </c>
-      <c r="E53" s="164">
+      <c r="E53" s="156">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="164"/>
-      <c r="G53" s="165"/>
+        <v>0.8175</v>
+      </c>
+      <c r="F53" s="156"/>
+      <c r="G53" s="157"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="174" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="182">
+      <c r="A54" s="165" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="172"/>
+      <c r="C54" s="172"/>
+      <c r="D54" s="173">
         <v>-0.15</v>
       </c>
-      <c r="E54" s="181"/>
-      <c r="F54" s="181"/>
-      <c r="G54" s="183"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="172"/>
+      <c r="G54" s="174"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="155" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146">
+      <c r="A55" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="138">
         <v>-0.2</v>
       </c>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="157"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="149"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="184" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="185"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="186">
+      <c r="A56" s="175" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="176"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="177">
         <v>-0.05</v>
       </c>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="187"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="176"/>
+      <c r="G56" s="178" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5647,15 +6377,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5787,14 +6508,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>